--- a/src/test/resources/pistesyotto/pistesyotto.xlsx
+++ b/src/test/resources/pistesyotto/pistesyotto.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussija\projektit\valintaperusteet\valintalaskentakoostepalvelu\src\test\resources\pistesyotto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Pistesyöttö" r:id="rId3" sheetId="1"/>
+    <sheet name="Pistesyöttö" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="436">
   <si>
     <t/>
   </si>
@@ -1325,42 +1332,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill>
-        <fgColor rgb="808080"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="FFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC99"/>
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -1376,441 +1372,718 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection locked="false"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.6015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.6015625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.6015625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.6015625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.6015625" customWidth="true"/>
-    <col min="8" max="8" width="16.6015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" t="s" s="2">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" t="s" s="2">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7"/>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7"/>
-      <c r="F7" t="s" s="2">
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7"/>
-      <c r="H7" t="s" s="2">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="1">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" t="n" s="4"/>
-      <c r="F8" t="s" s="4">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" t="n" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F9" t="s" s="4">
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s" s="1">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" t="n" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F10" t="s" s="4">
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="1">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" t="n" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F11" t="s" s="4">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s" s="1">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F12" t="s" s="4">
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s" s="1">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F13" t="s" s="4">
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s" s="1">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" t="n" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F14" t="s" s="4">
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s" s="1">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F15" t="s" s="4">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="1">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s" s="1">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" t="n" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F16" t="s" s="4">
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="1">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s" s="1">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F17" t="s" s="4">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="1">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s" s="1">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" t="n" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="F18" t="s" s="4">
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="1">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s" s="1">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" t="n" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F19" t="s" s="4">
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="1">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="1">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" t="n" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F20" t="s" s="4">
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="1">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s" s="1">
+      <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F21" t="s" s="4">
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="1">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s" s="1">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F22" t="s" s="4">
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="1">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s" s="1">
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F23" t="s" s="4">
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="1">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s" s="1">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F24" t="s" s="4">
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="1">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s" s="1">
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" t="n" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F25" t="s" s="4">
+      <c r="E25" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="1">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s" s="1">
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="3"/>
@@ -1820,11 +2093,11 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="1">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B27" t="s" s="1">
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="3"/>
@@ -1834,245 +2107,243 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="1">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s" s="1">
+      <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" t="n" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="F28" t="s" s="4">
+      <c r="E28" s="4">
+        <v>7</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="1">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B29" t="s" s="1">
+      <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" t="n" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="F29" t="s" s="4">
+      <c r="E29" s="4">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="1">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s" s="1">
+      <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F30" t="s" s="4">
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="1">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B31" t="s" s="1">
+      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F31" t="s" s="4">
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="1">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s" s="1">
+      <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" t="n" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="F32" t="s" s="4">
+      <c r="E32" s="4">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="1">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" t="s" s="1">
+      <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F33" t="s" s="4">
+      <c r="E33" s="4">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="1">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34" t="s" s="1">
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" t="n" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="F34" t="s" s="4">
+      <c r="E34" s="4">
+        <v>6</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="1">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B35" t="s" s="1">
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" t="n" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="F35" t="s" s="4">
+      <c r="E35" s="4">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="1">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B36" t="s" s="1">
+      <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" t="n" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F36" t="s" s="4">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="1">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B37" t="s" s="1">
+      <c r="B37" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" t="n" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="F37" t="s" s="4">
+      <c r="E37" s="4">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="1">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B38" t="s" s="1">
+      <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F38" t="s" s="4">
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="1">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B39" t="s" s="1">
+      <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" t="n" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F39" t="s" s="4">
+      <c r="E39" s="4">
+        <v>4</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="1">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B40" t="s" s="1">
+      <c r="B40" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F40" t="s" s="4">
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="1">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B41" t="s" s="1">
+      <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="3"/>
@@ -2082,255 +2353,255 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="1">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B42" t="s" s="1">
+      <c r="B42" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" t="n" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F42" t="s" s="4">
+      <c r="E42" s="4">
+        <v>4</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="1">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B43" t="s" s="1">
+      <c r="B43" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F43" t="s" s="4">
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="1">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B44" t="s" s="1">
+      <c r="B44" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" t="n" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F44" t="s" s="4">
+      <c r="E44" s="4">
+        <v>4</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="1">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B45" t="s" s="1">
+      <c r="B45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D45" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="E45" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F45" t="s" s="4">
+      <c r="D45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="1">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s" s="1">
+      <c r="B46" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" t="n" s="4"/>
-      <c r="F46" t="s" s="4">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="1">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s" s="1">
+      <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" t="n" s="4"/>
-      <c r="F47" t="s" s="4">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="1">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s" s="1">
+      <c r="B48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D48" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="E48" t="n" s="4"/>
-      <c r="F48" t="s" s="4">
+      <c r="D48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="1">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="s" s="1">
+      <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" t="n" s="4"/>
-      <c r="F49" t="s" s="4">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="1">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s" s="1">
+      <c r="B50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C50" t="s" s="4">
+      <c r="C50" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D50" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="E50" t="n" s="4"/>
-      <c r="F50" t="s" s="4">
+      <c r="D50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="1">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="s" s="1">
+      <c r="B51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" t="n" s="4"/>
-      <c r="F51" t="s" s="4">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="1">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="s" s="1">
+      <c r="B52" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" t="n" s="4"/>
-      <c r="F52" t="s" s="4">
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="1">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="s" s="1">
+      <c r="B53" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" t="n" s="4"/>
-      <c r="F53" t="s" s="4">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="1">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s" s="1">
+      <c r="B54" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" t="n" s="4"/>
-      <c r="F54" t="s" s="4">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="1">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s" s="1">
+      <c r="B55" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" t="n" s="4"/>
-      <c r="F55" t="s" s="4">
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="1">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="s" s="1">
+      <c r="B56" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C56" s="3"/>
@@ -2340,223 +2611,223 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="1">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="s" s="1">
+      <c r="B57" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" t="n" s="4"/>
-      <c r="F57" t="s" s="4">
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58">
-      <c r="A58" t="s" s="1">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B58" t="s" s="1">
+      <c r="B58" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" t="n" s="4"/>
-      <c r="F58" t="s" s="4">
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="1">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B59" t="s" s="1">
+      <c r="B59" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" t="n" s="4"/>
-      <c r="F59" t="s" s="4">
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="1">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="s" s="1">
+      <c r="B60" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" t="n" s="4"/>
-      <c r="F60" t="s" s="4">
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61">
-      <c r="A61" t="s" s="1">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="s" s="1">
+      <c r="B61" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" t="n" s="4"/>
-      <c r="F61" t="s" s="4">
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62">
-      <c r="A62" t="s" s="1">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="s" s="1">
+      <c r="B62" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" t="n" s="4"/>
-      <c r="F62" t="s" s="4">
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63">
-      <c r="A63" t="s" s="1">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B63" t="s" s="1">
+      <c r="B63" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" t="n" s="4"/>
-      <c r="F63" t="s" s="4">
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64">
-      <c r="A64" t="s" s="1">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="s" s="1">
+      <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D64" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="E64" t="n" s="4"/>
-      <c r="F64" t="s" s="4">
+      <c r="D64" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65">
-      <c r="A65" t="s" s="1">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B65" t="s" s="1">
+      <c r="B65" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" t="n" s="4"/>
-      <c r="F65" t="s" s="4">
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66">
-      <c r="A66" t="s" s="1">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B66" t="s" s="1">
+      <c r="B66" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" t="n" s="4"/>
-      <c r="F66" t="s" s="4">
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67">
-      <c r="A67" t="s" s="1">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="s" s="1">
+      <c r="B67" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" t="n" s="4"/>
-      <c r="F67" t="s" s="4">
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68">
-      <c r="A68" t="s" s="1">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B68" t="s" s="1">
+      <c r="B68" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" t="n" s="4"/>
-      <c r="F68" t="s" s="4">
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69">
-      <c r="A69" t="s" s="1">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B69" t="s" s="1">
+      <c r="B69" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" t="n" s="4"/>
-      <c r="F69" t="s" s="4">
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70">
-      <c r="A70" t="s" s="1">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s" s="1">
+      <c r="B70" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C70" s="3"/>
@@ -2566,139 +2837,139 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71">
-      <c r="A71" t="s" s="1">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="s" s="1">
+      <c r="B71" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" t="n" s="4"/>
-      <c r="F71" t="s" s="4">
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72">
-      <c r="A72" t="s" s="1">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="s" s="1">
+      <c r="B72" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" t="n" s="4"/>
-      <c r="F72" t="s" s="4">
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73">
-      <c r="A73" t="s" s="1">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="s" s="1">
+      <c r="B73" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" t="n" s="4"/>
-      <c r="F73" t="s" s="4">
+      <c r="E73" s="4"/>
+      <c r="F73" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74">
-      <c r="A74" t="s" s="1">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="s" s="1">
+      <c r="B74" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" t="n" s="4"/>
-      <c r="F74" t="s" s="4">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75">
-      <c r="A75" t="s" s="1">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B75" t="s" s="1">
+      <c r="B75" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" t="n" s="4"/>
-      <c r="F75" t="s" s="4">
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76">
-      <c r="A76" t="s" s="1">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="s" s="1">
+      <c r="B76" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" t="n" s="4"/>
-      <c r="F76" t="s" s="4">
+      <c r="E76" s="4"/>
+      <c r="F76" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77">
-      <c r="A77" t="s" s="1">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B77" t="s" s="1">
+      <c r="B77" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" t="n" s="4"/>
-      <c r="F77" t="s" s="4">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78">
-      <c r="A78" t="s" s="1">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B78" t="s" s="1">
+      <c r="B78" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" t="n" s="4"/>
-      <c r="F78" t="s" s="4">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79">
-      <c r="A79" t="s" s="1">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B79" t="s" s="1">
+      <c r="B79" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C79" s="3"/>
@@ -2708,127 +2979,127 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80">
-      <c r="A80" t="s" s="1">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B80" t="s" s="1">
+      <c r="B80" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" t="n" s="4"/>
-      <c r="F80" t="s" s="4">
+      <c r="E80" s="4"/>
+      <c r="F80" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81">
-      <c r="A81" t="s" s="1">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B81" t="s" s="1">
+      <c r="B81" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" t="n" s="4"/>
-      <c r="F81" t="s" s="4">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82">
-      <c r="A82" t="s" s="1">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B82" t="s" s="1">
+      <c r="B82" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" t="n" s="4"/>
-      <c r="F82" t="s" s="4">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83">
-      <c r="A83" t="s" s="1">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B83" t="s" s="1">
+      <c r="B83" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" t="n" s="4"/>
-      <c r="F83" t="s" s="4">
+      <c r="E83" s="4"/>
+      <c r="F83" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84">
-      <c r="A84" t="s" s="1">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B84" t="s" s="1">
+      <c r="B84" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D84" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="E84" t="n" s="4"/>
-      <c r="F84" t="s" s="4">
+      <c r="D84" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85">
-      <c r="A85" t="s" s="1">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B85" t="s" s="1">
+      <c r="B85" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" t="n" s="4"/>
-      <c r="F85" t="s" s="4">
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86">
-      <c r="A86" t="s" s="1">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B86" t="s" s="1">
+      <c r="B86" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" t="n" s="4"/>
-      <c r="F86" t="s" s="4">
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87">
-      <c r="A87" t="s" s="1">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B87" t="s" s="1">
+      <c r="B87" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C87" s="3"/>
@@ -2838,11 +3109,11 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88">
-      <c r="A88" t="s" s="1">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B88" t="s" s="1">
+      <c r="B88" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C88" s="3"/>
@@ -2852,267 +3123,267 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89">
-      <c r="A89" t="s" s="1">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B89" t="s" s="1">
+      <c r="B89" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" t="n" s="4"/>
-      <c r="F89" t="s" s="4">
+      <c r="E89" s="4"/>
+      <c r="F89" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90">
-      <c r="A90" t="s" s="1">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B90" t="s" s="1">
+      <c r="B90" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" t="n" s="4"/>
-      <c r="F90" t="s" s="4">
+      <c r="E90" s="4"/>
+      <c r="F90" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91">
-      <c r="A91" t="s" s="1">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B91" t="s" s="1">
+      <c r="B91" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" t="n" s="4"/>
-      <c r="F91" t="s" s="4">
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92">
-      <c r="A92" t="s" s="1">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B92" t="s" s="1">
+      <c r="B92" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" t="n" s="4"/>
-      <c r="F92" t="s" s="4">
+      <c r="E92" s="4"/>
+      <c r="F92" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93">
-      <c r="A93" t="s" s="1">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B93" t="s" s="1">
+      <c r="B93" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" t="n" s="4"/>
-      <c r="F93" t="s" s="4">
+      <c r="E93" s="4"/>
+      <c r="F93" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94">
-      <c r="A94" t="s" s="1">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B94" t="s" s="1">
+      <c r="B94" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" t="n" s="4"/>
-      <c r="F94" t="s" s="4">
+      <c r="E94" s="4"/>
+      <c r="F94" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95">
-      <c r="A95" t="s" s="1">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B95" t="s" s="1">
+      <c r="B95" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" t="n" s="4"/>
-      <c r="F95" t="s" s="4">
+      <c r="E95" s="4"/>
+      <c r="F95" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96">
-      <c r="A96" t="s" s="1">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B96" t="s" s="1">
+      <c r="B96" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" t="n" s="4"/>
-      <c r="F96" t="s" s="4">
+      <c r="E96" s="4"/>
+      <c r="F96" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97">
-      <c r="A97" t="s" s="1">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B97" t="s" s="1">
+      <c r="B97" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" t="n" s="4"/>
-      <c r="F97" t="s" s="4">
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98">
-      <c r="A98" t="s" s="1">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B98" t="s" s="1">
+      <c r="B98" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" t="n" s="4"/>
-      <c r="F98" t="s" s="4">
+      <c r="E98" s="4"/>
+      <c r="F98" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99">
-      <c r="A99" t="s" s="1">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B99" t="s" s="1">
+      <c r="B99" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" t="n" s="4"/>
-      <c r="F99" t="s" s="4">
+      <c r="E99" s="4"/>
+      <c r="F99" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100">
-      <c r="A100" t="s" s="1">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B100" t="s" s="1">
+      <c r="B100" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" t="n" s="4"/>
-      <c r="F100" t="s" s="4">
+      <c r="E100" s="4"/>
+      <c r="F100" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101">
-      <c r="A101" t="s" s="1">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B101" t="s" s="1">
+      <c r="B101" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" t="n" s="4"/>
-      <c r="F101" t="s" s="4">
+      <c r="E101" s="4"/>
+      <c r="F101" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102">
-      <c r="A102" t="s" s="1">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B102" t="s" s="1">
+      <c r="B102" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" t="n" s="4"/>
-      <c r="F102" t="s" s="4">
+      <c r="E102" s="4"/>
+      <c r="F102" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103">
-      <c r="A103" t="s" s="1">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B103" t="s" s="1">
+      <c r="B103" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" t="n" s="4"/>
-      <c r="F103" t="s" s="4">
+      <c r="E103" s="4"/>
+      <c r="F103" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104">
-      <c r="A104" t="s" s="1">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B104" t="s" s="1">
+      <c r="B104" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" t="n" s="4"/>
-      <c r="F104" t="s" s="4">
+      <c r="E104" s="4"/>
+      <c r="F104" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105">
-      <c r="A105" t="s" s="1">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B105" t="s" s="1">
+      <c r="B105" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C105" s="3"/>
@@ -3122,759 +3393,761 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106">
-      <c r="A106" t="s" s="1">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B106" t="s" s="1">
+      <c r="B106" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" t="n" s="4"/>
-      <c r="F106" t="s" s="4">
+      <c r="E106" s="4"/>
+      <c r="F106" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107">
-      <c r="A107" t="s" s="1">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B107" t="s" s="1">
+      <c r="B107" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" t="n" s="4"/>
-      <c r="F107" t="s" s="4">
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108">
-      <c r="A108" t="s" s="1">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B108" t="s" s="1">
+      <c r="B108" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" t="n" s="4"/>
-      <c r="F108" t="s" s="4">
+      <c r="E108" s="4"/>
+      <c r="F108" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109">
-      <c r="A109" t="s" s="1">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B109" t="s" s="1">
+      <c r="B109" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" t="n" s="4"/>
-      <c r="F109" t="s" s="4">
+      <c r="E109" s="4"/>
+      <c r="F109" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110">
-      <c r="A110" t="s" s="1">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B110" t="s" s="1">
+      <c r="B110" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" t="n" s="4"/>
-      <c r="F110" t="s" s="4">
+      <c r="E110" s="4"/>
+      <c r="F110" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111">
-      <c r="A111" t="s" s="1">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B111" t="s" s="1">
+      <c r="B111" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" t="n" s="4"/>
-      <c r="F111" t="s" s="4">
+      <c r="E111" s="4"/>
+      <c r="F111" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112">
-      <c r="A112" t="s" s="1">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B112" t="s" s="1">
+      <c r="B112" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" t="n" s="4"/>
-      <c r="F112" t="s" s="4">
+      <c r="E112" s="4"/>
+      <c r="F112" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113">
-      <c r="A113" t="s" s="1">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B113" t="s" s="1">
+      <c r="B113" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" t="n" s="4"/>
-      <c r="F113" t="s" s="4">
+      <c r="E113" s="4"/>
+      <c r="F113" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114">
-      <c r="A114" t="s" s="1">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B114" t="s" s="1">
+      <c r="B114" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" t="n" s="4"/>
-      <c r="F114" t="s" s="4">
+      <c r="E114" s="4"/>
+      <c r="F114" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115">
-      <c r="A115" t="s" s="1">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B115" t="s" s="1">
+      <c r="B115" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" t="n" s="4"/>
-      <c r="F115" t="s" s="4">
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116">
-      <c r="A116" t="s" s="1">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B116" t="s" s="1">
+      <c r="B116" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" t="n" s="4"/>
-      <c r="F116" t="s" s="4">
+      <c r="E116" s="4"/>
+      <c r="F116" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117">
-      <c r="A117" t="s" s="1">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B117" t="s" s="1">
+      <c r="B117" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" t="n" s="4"/>
-      <c r="F117" t="s" s="4">
+      <c r="E117" s="4"/>
+      <c r="F117" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118">
-      <c r="A118" t="s" s="1">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B118" t="s" s="1">
+      <c r="B118" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" t="n" s="4"/>
-      <c r="F118" t="s" s="4">
+      <c r="E118" s="4"/>
+      <c r="F118" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119">
-      <c r="A119" t="s" s="1">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B119" t="s" s="1">
+      <c r="B119" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D119" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="E119" t="n" s="4"/>
-      <c r="F119" t="s" s="4">
+      <c r="D119" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120">
-      <c r="A120" t="s" s="1">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B120" t="s" s="1">
+      <c r="B120" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" t="n" s="4"/>
-      <c r="F120" t="s" s="4">
+      <c r="E120" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121">
-      <c r="A121" t="s" s="1">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B121" t="s" s="1">
+      <c r="B121" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" t="n" s="4"/>
-      <c r="F121" t="s" s="4">
+      <c r="E121" s="4"/>
+      <c r="F121" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122">
-      <c r="A122" t="s" s="1">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B122" t="s" s="1">
+      <c r="B122" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" t="n" s="4"/>
-      <c r="F122" t="s" s="4">
+      <c r="E122" s="4"/>
+      <c r="F122" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123">
-      <c r="A123" t="s" s="1">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B123" t="s" s="1">
+      <c r="B123" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" t="n" s="4"/>
-      <c r="F123" t="s" s="4">
+      <c r="E123" s="4"/>
+      <c r="F123" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124">
-      <c r="A124" t="s" s="1">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B124" t="s" s="1">
+      <c r="B124" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C124" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D124" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="E124" t="n" s="4"/>
-      <c r="F124" t="s" s="4">
+      <c r="D124" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125">
-      <c r="A125" t="s" s="1">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B125" t="s" s="1">
+      <c r="B125" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" t="n" s="4"/>
-      <c r="F125" t="s" s="4">
+      <c r="E125" s="4"/>
+      <c r="F125" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126">
-      <c r="A126" t="s" s="1">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B126" t="s" s="1">
+      <c r="B126" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" t="n" s="4"/>
-      <c r="F126" t="s" s="4">
+      <c r="E126" s="4"/>
+      <c r="F126" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127">
-      <c r="A127" t="s" s="1">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B127" t="s" s="1">
+      <c r="B127" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" t="n" s="4"/>
-      <c r="F127" t="s" s="4">
+      <c r="E127" s="4"/>
+      <c r="F127" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128">
-      <c r="A128" t="s" s="1">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B128" t="s" s="1">
+      <c r="B128" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" t="n" s="4"/>
-      <c r="F128" t="s" s="4">
+      <c r="E128" s="4"/>
+      <c r="F128" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129">
-      <c r="A129" t="s" s="1">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B129" t="s" s="1">
+      <c r="B129" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" t="n" s="4"/>
-      <c r="F129" t="s" s="4">
+      <c r="E129" s="4"/>
+      <c r="F129" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130">
-      <c r="A130" t="s" s="1">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B130" t="s" s="1">
+      <c r="B130" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" t="n" s="4"/>
-      <c r="F130" t="s" s="4">
+      <c r="E130" s="4"/>
+      <c r="F130" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131">
-      <c r="A131" t="s" s="1">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B131" t="s" s="1">
+      <c r="B131" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" t="n" s="4"/>
-      <c r="F131" t="s" s="4">
+      <c r="E131" s="4"/>
+      <c r="F131" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132">
-      <c r="A132" t="s" s="1">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B132" t="s" s="1">
+      <c r="B132" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" t="n" s="4"/>
-      <c r="F132" t="s" s="4">
+      <c r="E132" s="4"/>
+      <c r="F132" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133">
-      <c r="A133" t="s" s="1">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B133" t="s" s="1">
+      <c r="B133" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" t="n" s="4"/>
-      <c r="F133" t="s" s="4">
+      <c r="E133" s="4"/>
+      <c r="F133" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134">
-      <c r="A134" t="s" s="1">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B134" t="s" s="1">
+      <c r="B134" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" t="n" s="4"/>
-      <c r="F134" t="s" s="4">
+      <c r="E134" s="4"/>
+      <c r="F134" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135">
-      <c r="A135" t="s" s="1">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B135" t="s" s="1">
+      <c r="B135" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" t="n" s="4"/>
-      <c r="F135" t="s" s="4">
+      <c r="E135" s="4"/>
+      <c r="F135" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136">
-      <c r="A136" t="s" s="1">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B136" t="s" s="1">
+      <c r="B136" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" t="n" s="4"/>
-      <c r="F136" t="s" s="4">
+      <c r="E136" s="4"/>
+      <c r="F136" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137">
-      <c r="A137" t="s" s="1">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B137" t="s" s="1">
+      <c r="B137" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" t="n" s="4"/>
-      <c r="F137" t="s" s="4">
+      <c r="E137" s="4"/>
+      <c r="F137" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138">
-      <c r="A138" t="s" s="1">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B138" t="s" s="1">
+      <c r="B138" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" t="n" s="4"/>
-      <c r="F138" t="s" s="4">
+      <c r="E138" s="4"/>
+      <c r="F138" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139">
-      <c r="A139" t="s" s="1">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B139" t="s" s="1">
+      <c r="B139" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" t="n" s="4"/>
-      <c r="F139" t="s" s="4">
+      <c r="E139" s="4"/>
+      <c r="F139" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140">
-      <c r="A140" t="s" s="1">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B140" t="s" s="1">
+      <c r="B140" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" t="n" s="4"/>
-      <c r="F140" t="s" s="4">
+      <c r="E140" s="4"/>
+      <c r="F140" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141">
-      <c r="A141" t="s" s="1">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B141" t="s" s="1">
+      <c r="B141" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" t="n" s="4"/>
-      <c r="F141" t="s" s="4">
+      <c r="E141" s="4"/>
+      <c r="F141" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142">
-      <c r="A142" t="s" s="1">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B142" t="s" s="1">
+      <c r="B142" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" t="n" s="4"/>
-      <c r="F142" t="s" s="4">
+      <c r="E142" s="4"/>
+      <c r="F142" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143">
-      <c r="A143" t="s" s="1">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B143" t="s" s="1">
+      <c r="B143" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" t="n" s="4"/>
-      <c r="F143" t="s" s="4">
+      <c r="E143" s="4"/>
+      <c r="F143" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144">
-      <c r="A144" t="s" s="1">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B144" t="s" s="1">
+      <c r="B144" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" t="n" s="4"/>
-      <c r="F144" t="s" s="4">
+      <c r="E144" s="4"/>
+      <c r="F144" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145">
-      <c r="A145" t="s" s="1">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B145" t="s" s="1">
+      <c r="B145" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" t="n" s="4"/>
-      <c r="F145" t="s" s="4">
+      <c r="E145" s="4"/>
+      <c r="F145" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146">
-      <c r="A146" t="s" s="1">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B146" t="s" s="1">
+      <c r="B146" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" t="n" s="4"/>
-      <c r="F146" t="s" s="4">
+      <c r="E146" s="4"/>
+      <c r="F146" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147">
-      <c r="A147" t="s" s="1">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B147" t="s" s="1">
+      <c r="B147" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" t="n" s="4"/>
-      <c r="F147" t="s" s="4">
+      <c r="E147" s="4"/>
+      <c r="F147" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148">
-      <c r="A148" t="s" s="1">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B148" t="s" s="1">
+      <c r="B148" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D148" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="E148" t="n" s="4"/>
-      <c r="F148" t="s" s="4">
+      <c r="D148" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149">
-      <c r="A149" t="s" s="1">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B149" t="s" s="1">
+      <c r="B149" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" t="n" s="4"/>
-      <c r="F149" t="s" s="4">
+      <c r="E149" s="4"/>
+      <c r="F149" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150">
-      <c r="A150" t="s" s="1">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B150" t="s" s="1">
+      <c r="B150" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" t="n" s="4"/>
-      <c r="F150" t="s" s="4">
+      <c r="E150" s="4"/>
+      <c r="F150" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151">
-      <c r="A151" t="s" s="1">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B151" t="s" s="1">
+      <c r="B151" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" t="n" s="4"/>
-      <c r="F151" t="s" s="4">
+      <c r="E151" s="4"/>
+      <c r="F151" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152">
-      <c r="A152" t="s" s="1">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B152" t="s" s="1">
+      <c r="B152" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C152" s="3"/>
@@ -3884,43 +4157,43 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153">
-      <c r="A153" t="s" s="1">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B153" t="s" s="1">
+      <c r="B153" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" t="n" s="4"/>
-      <c r="F153" t="s" s="4">
+      <c r="E153" s="4"/>
+      <c r="F153" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154">
-      <c r="A154" t="s" s="1">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B154" t="s" s="1">
+      <c r="B154" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" t="n" s="4"/>
-      <c r="F154" t="s" s="4">
+      <c r="E154" s="4"/>
+      <c r="F154" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155">
-      <c r="A155" t="s" s="1">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B155" t="s" s="1">
+      <c r="B155" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C155" s="3"/>
@@ -3930,335 +4203,335 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156">
-      <c r="A156" t="s" s="1">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B156" t="s" s="1">
+      <c r="B156" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" t="n" s="4"/>
-      <c r="F156" t="s" s="4">
+      <c r="E156" s="4"/>
+      <c r="F156" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157">
-      <c r="A157" t="s" s="1">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B157" t="s" s="1">
+      <c r="B157" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" t="n" s="4"/>
-      <c r="F157" t="s" s="4">
+      <c r="E157" s="4"/>
+      <c r="F157" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158">
-      <c r="A158" t="s" s="1">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B158" t="s" s="1">
+      <c r="B158" s="1" t="s">
         <v>318</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" t="n" s="4"/>
-      <c r="F158" t="s" s="4">
+      <c r="E158" s="4"/>
+      <c r="F158" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159">
-      <c r="A159" t="s" s="1">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B159" t="s" s="1">
+      <c r="B159" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" t="n" s="4"/>
-      <c r="F159" t="s" s="4">
+      <c r="E159" s="4"/>
+      <c r="F159" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160">
-      <c r="A160" t="s" s="1">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B160" t="s" s="1">
+      <c r="B160" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" t="n" s="4"/>
-      <c r="F160" t="s" s="4">
+      <c r="E160" s="4"/>
+      <c r="F160" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161">
-      <c r="A161" t="s" s="1">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B161" t="s" s="1">
+      <c r="B161" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" t="n" s="4"/>
-      <c r="F161" t="s" s="4">
+      <c r="E161" s="4"/>
+      <c r="F161" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162">
-      <c r="A162" t="s" s="1">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B162" t="s" s="1">
+      <c r="B162" s="1" t="s">
         <v>326</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="E162" t="n" s="4"/>
-      <c r="F162" t="s" s="4">
+      <c r="E162" s="4"/>
+      <c r="F162" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163">
-      <c r="A163" t="s" s="1">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B163" t="s" s="1">
+      <c r="B163" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" t="n" s="4"/>
-      <c r="F163" t="s" s="4">
+      <c r="E163" s="4"/>
+      <c r="F163" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164">
-      <c r="A164" t="s" s="1">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B164" t="s" s="1">
+      <c r="B164" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" t="n" s="4"/>
-      <c r="F164" t="s" s="4">
+      <c r="E164" s="4"/>
+      <c r="F164" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165">
-      <c r="A165" t="s" s="1">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B165" t="s" s="1">
+      <c r="B165" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" t="n" s="4"/>
-      <c r="F165" t="s" s="4">
+      <c r="E165" s="4"/>
+      <c r="F165" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166">
-      <c r="A166" t="s" s="1">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B166" t="s" s="1">
+      <c r="B166" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" t="n" s="4"/>
-      <c r="F166" t="s" s="4">
+      <c r="E166" s="4"/>
+      <c r="F166" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
     </row>
-    <row r="167">
-      <c r="A167" t="s" s="1">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B167" t="s" s="1">
+      <c r="B167" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C167" t="s" s="4">
+      <c r="C167" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D167" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="E167" t="n" s="4"/>
-      <c r="F167" t="s" s="4">
+      <c r="D167" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
     </row>
-    <row r="168">
-      <c r="A168" t="s" s="1">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B168" t="s" s="1">
+      <c r="B168" s="1" t="s">
         <v>338</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="E168" t="n" s="4"/>
-      <c r="F168" t="s" s="4">
+      <c r="E168" s="4"/>
+      <c r="F168" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169">
-      <c r="A169" t="s" s="1">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B169" t="s" s="1">
+      <c r="B169" s="1" t="s">
         <v>340</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
-      <c r="E169" t="n" s="4"/>
-      <c r="F169" t="s" s="4">
+      <c r="E169" s="4"/>
+      <c r="F169" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170">
-      <c r="A170" t="s" s="1">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B170" t="s" s="1">
+      <c r="B170" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
-      <c r="E170" t="n" s="4"/>
-      <c r="F170" t="s" s="4">
+      <c r="E170" s="4"/>
+      <c r="F170" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
     </row>
-    <row r="171">
-      <c r="A171" t="s" s="1">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B171" t="s" s="1">
+      <c r="B171" s="1" t="s">
         <v>344</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
-      <c r="E171" t="n" s="4"/>
-      <c r="F171" t="s" s="4">
+      <c r="E171" s="4"/>
+      <c r="F171" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
     </row>
-    <row r="172">
-      <c r="A172" t="s" s="1">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B172" t="s" s="1">
+      <c r="B172" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
-      <c r="E172" t="n" s="4"/>
-      <c r="F172" t="s" s="4">
+      <c r="E172" s="4"/>
+      <c r="F172" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
     </row>
-    <row r="173">
-      <c r="A173" t="s" s="1">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B173" t="s" s="1">
+      <c r="B173" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
-      <c r="E173" t="n" s="4"/>
-      <c r="F173" t="s" s="4">
+      <c r="E173" s="4"/>
+      <c r="F173" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
-    <row r="174">
-      <c r="A174" t="s" s="1">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B174" t="s" s="1">
+      <c r="B174" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
-      <c r="E174" t="n" s="4"/>
-      <c r="F174" t="s" s="4">
+      <c r="E174" s="4"/>
+      <c r="F174" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175">
-      <c r="A175" t="s" s="1">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B175" t="s" s="1">
+      <c r="B175" s="1" t="s">
         <v>352</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
-      <c r="E175" t="n" s="4"/>
-      <c r="F175" t="s" s="4">
+      <c r="E175" s="4"/>
+      <c r="F175" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176">
-      <c r="A176" t="s" s="1">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B176" t="s" s="1">
+      <c r="B176" s="1" t="s">
         <v>354</v>
       </c>
       <c r="C176" s="3"/>
@@ -4268,159 +4541,159 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177">
-      <c r="A177" t="s" s="1">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B177" t="s" s="1">
+      <c r="B177" s="1" t="s">
         <v>356</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
-      <c r="E177" t="n" s="4"/>
-      <c r="F177" t="s" s="4">
+      <c r="E177" s="4"/>
+      <c r="F177" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
-    <row r="178">
-      <c r="A178" t="s" s="1">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B178" t="s" s="1">
+      <c r="B178" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D178" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="E178" t="n" s="4"/>
-      <c r="F178" t="s" s="4">
+      <c r="D178" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179">
-      <c r="A179" t="s" s="1">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B179" t="s" s="1">
+      <c r="B179" s="1" t="s">
         <v>360</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" t="n" s="4"/>
-      <c r="F179" t="s" s="4">
+      <c r="E179" s="4"/>
+      <c r="F179" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
     </row>
-    <row r="180">
-      <c r="A180" t="s" s="1">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B180" t="s" s="1">
+      <c r="B180" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
-      <c r="E180" t="n" s="4"/>
-      <c r="F180" t="s" s="4">
+      <c r="E180" s="4"/>
+      <c r="F180" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181">
-      <c r="A181" t="s" s="1">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B181" t="s" s="1">
+      <c r="B181" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
-      <c r="E181" t="n" s="4"/>
-      <c r="F181" t="s" s="4">
+      <c r="E181" s="4"/>
+      <c r="F181" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
     </row>
-    <row r="182">
-      <c r="A182" t="s" s="1">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B182" t="s" s="1">
+      <c r="B182" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
-      <c r="E182" t="n" s="4"/>
-      <c r="F182" t="s" s="4">
+      <c r="E182" s="4"/>
+      <c r="F182" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183">
-      <c r="A183" t="s" s="1">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B183" t="s" s="1">
+      <c r="B183" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
-      <c r="E183" t="n" s="4"/>
-      <c r="F183" t="s" s="4">
+      <c r="E183" s="4"/>
+      <c r="F183" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
-    <row r="184">
-      <c r="A184" t="s" s="1">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B184" t="s" s="1">
+      <c r="B184" s="1" t="s">
         <v>370</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" t="n" s="4"/>
-      <c r="F184" t="s" s="4">
+      <c r="E184" s="4"/>
+      <c r="F184" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
     </row>
-    <row r="185">
-      <c r="A185" t="s" s="1">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B185" t="s" s="1">
+      <c r="B185" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
-      <c r="E185" t="n" s="4"/>
-      <c r="F185" t="s" s="4">
+      <c r="E185" s="4"/>
+      <c r="F185" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
     </row>
-    <row r="186">
-      <c r="A186" t="s" s="1">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B186" t="s" s="1">
+      <c r="B186" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C186" s="3"/>
@@ -4430,319 +4703,319 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
     </row>
-    <row r="187">
-      <c r="A187" t="s" s="1">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B187" t="s" s="1">
+      <c r="B187" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" t="n" s="4"/>
-      <c r="F187" t="s" s="4">
+      <c r="E187" s="4"/>
+      <c r="F187" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
     </row>
-    <row r="188">
-      <c r="A188" t="s" s="1">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B188" t="s" s="1">
+      <c r="B188" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C188" t="s" s="4">
+      <c r="C188" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D188" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="E188" t="n" s="4"/>
-      <c r="F188" t="s" s="4">
+      <c r="D188" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
     </row>
-    <row r="189">
-      <c r="A189" t="s" s="1">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B189" t="s" s="1">
+      <c r="B189" s="1" t="s">
         <v>380</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
-      <c r="E189" t="n" s="4"/>
-      <c r="F189" t="s" s="4">
+      <c r="E189" s="4"/>
+      <c r="F189" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
     </row>
-    <row r="190">
-      <c r="A190" t="s" s="1">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B190" t="s" s="1">
+      <c r="B190" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
-      <c r="E190" t="n" s="4"/>
-      <c r="F190" t="s" s="4">
+      <c r="E190" s="4"/>
+      <c r="F190" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
-    <row r="191">
-      <c r="A191" t="s" s="1">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B191" t="s" s="1">
+      <c r="B191" s="1" t="s">
         <v>384</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
-      <c r="E191" t="n" s="4"/>
-      <c r="F191" t="s" s="4">
+      <c r="E191" s="4"/>
+      <c r="F191" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
     </row>
-    <row r="192">
-      <c r="A192" t="s" s="1">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B192" t="s" s="1">
+      <c r="B192" s="1" t="s">
         <v>386</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
-      <c r="E192" t="n" s="4"/>
-      <c r="F192" t="s" s="4">
+      <c r="E192" s="4"/>
+      <c r="F192" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
     </row>
-    <row r="193">
-      <c r="A193" t="s" s="1">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B193" t="s" s="1">
+      <c r="B193" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
-      <c r="E193" t="n" s="4"/>
-      <c r="F193" t="s" s="4">
+      <c r="E193" s="4"/>
+      <c r="F193" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
     </row>
-    <row r="194">
-      <c r="A194" t="s" s="1">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B194" t="s" s="1">
+      <c r="B194" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
-      <c r="E194" t="n" s="4"/>
-      <c r="F194" t="s" s="4">
+      <c r="E194" s="4"/>
+      <c r="F194" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
     </row>
-    <row r="195">
-      <c r="A195" t="s" s="1">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B195" t="s" s="1">
+      <c r="B195" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
-      <c r="E195" t="n" s="4"/>
-      <c r="F195" t="s" s="4">
+      <c r="E195" s="4"/>
+      <c r="F195" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
     </row>
-    <row r="196">
-      <c r="A196" t="s" s="1">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B196" t="s" s="1">
+      <c r="B196" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
-      <c r="E196" t="n" s="4"/>
-      <c r="F196" t="s" s="4">
+      <c r="E196" s="4"/>
+      <c r="F196" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
     </row>
-    <row r="197">
-      <c r="A197" t="s" s="1">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B197" t="s" s="1">
+      <c r="B197" s="1" t="s">
         <v>396</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
-      <c r="E197" t="n" s="4"/>
-      <c r="F197" t="s" s="4">
+      <c r="E197" s="4"/>
+      <c r="F197" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
     </row>
-    <row r="198">
-      <c r="A198" t="s" s="1">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B198" t="s" s="1">
+      <c r="B198" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
-      <c r="E198" t="n" s="4"/>
-      <c r="F198" t="s" s="4">
+      <c r="E198" s="4"/>
+      <c r="F198" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
     </row>
-    <row r="199">
-      <c r="A199" t="s" s="1">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B199" t="s" s="1">
+      <c r="B199" s="1" t="s">
         <v>400</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
-      <c r="E199" t="n" s="4"/>
-      <c r="F199" t="s" s="4">
+      <c r="E199" s="4"/>
+      <c r="F199" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
     </row>
-    <row r="200">
-      <c r="A200" t="s" s="1">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B200" t="s" s="1">
+      <c r="B200" s="1" t="s">
         <v>402</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
-      <c r="E200" t="n" s="4"/>
-      <c r="F200" t="s" s="4">
+      <c r="E200" s="4"/>
+      <c r="F200" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
     </row>
-    <row r="201">
-      <c r="A201" t="s" s="1">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B201" t="s" s="1">
+      <c r="B201" s="1" t="s">
         <v>404</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
-      <c r="E201" t="n" s="4"/>
-      <c r="F201" t="s" s="4">
+      <c r="E201" s="4"/>
+      <c r="F201" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
     </row>
-    <row r="202">
-      <c r="A202" t="s" s="1">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B202" t="s" s="1">
+      <c r="B202" s="1" t="s">
         <v>406</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="E202" t="n" s="4"/>
-      <c r="F202" t="s" s="4">
+      <c r="E202" s="4"/>
+      <c r="F202" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
     </row>
-    <row r="203">
-      <c r="A203" t="s" s="1">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B203" t="s" s="1">
+      <c r="B203" s="1" t="s">
         <v>408</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="E203" t="n" s="4"/>
-      <c r="F203" t="s" s="4">
+      <c r="E203" s="4"/>
+      <c r="F203" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
     </row>
-    <row r="204">
-      <c r="A204" t="s" s="1">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B204" t="s" s="1">
+      <c r="B204" s="1" t="s">
         <v>410</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="E204" t="n" s="4"/>
-      <c r="F204" t="s" s="4">
+      <c r="E204" s="4"/>
+      <c r="F204" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
     </row>
-    <row r="205">
-      <c r="A205" t="s" s="1">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B205" t="s" s="1">
+      <c r="B205" s="1" t="s">
         <v>412</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="E205" t="n" s="4"/>
-      <c r="F205" t="s" s="4">
+      <c r="E205" s="4"/>
+      <c r="F205" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
     </row>
-    <row r="206">
-      <c r="A206" t="s" s="1">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B206" t="s" s="1">
+      <c r="B206" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C206" s="3"/>
@@ -4752,59 +5025,59 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
     </row>
-    <row r="207">
-      <c r="A207" t="s" s="1">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B207" t="s" s="1">
+      <c r="B207" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="E207" t="n" s="4"/>
-      <c r="F207" t="s" s="4">
+      <c r="E207" s="4"/>
+      <c r="F207" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
     </row>
-    <row r="208">
-      <c r="A208" t="s" s="1">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B208" t="s" s="1">
+      <c r="B208" s="1" t="s">
         <v>418</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="E208" t="n" s="4"/>
-      <c r="F208" t="s" s="4">
+      <c r="E208" s="4"/>
+      <c r="F208" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
     </row>
-    <row r="209">
-      <c r="A209" t="s" s="1">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B209" t="s" s="1">
+      <c r="B209" s="1" t="s">
         <v>420</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="E209" t="n" s="4"/>
-      <c r="F209" t="s" s="4">
+      <c r="E209" s="4"/>
+      <c r="F209" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
     </row>
-    <row r="210">
-      <c r="A210" t="s" s="1">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B210" t="s" s="1">
+      <c r="B210" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C210" s="3"/>
@@ -4814,27 +5087,27 @@
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
     </row>
-    <row r="211">
-      <c r="A211" t="s" s="1">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B211" t="s" s="1">
+      <c r="B211" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="E211" t="n" s="4"/>
-      <c r="F211" t="s" s="4">
+      <c r="E211" s="4"/>
+      <c r="F211" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
     </row>
-    <row r="212">
-      <c r="A212" t="s" s="1">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B212" t="s" s="1">
+      <c r="B212" s="1" t="s">
         <v>426</v>
       </c>
       <c r="C212" s="3"/>
@@ -4844,1526 +5117,1525 @@
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
     </row>
-    <row r="213">
-      <c r="A213" t="s" s="1">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B213" t="s" s="1">
+      <c r="B213" s="1" t="s">
         <v>428</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="E213" t="n" s="4"/>
-      <c r="F213" t="s" s="4">
+      <c r="E213" s="4"/>
+      <c r="F213" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
     </row>
-    <row r="214">
-      <c r="A214" t="s" s="1">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B214" t="s" s="1">
+      <c r="B214" s="1" t="s">
         <v>430</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="E214" t="n" s="4"/>
-      <c r="F214" t="s" s="4">
+      <c r="E214" s="4"/>
+      <c r="F214" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
     </row>
-    <row r="215">
-      <c r="A215" t="s" s="1">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B215" t="s" s="1">
+      <c r="B215" s="1" t="s">
         <v>430</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
-      <c r="E215" t="n" s="4"/>
-      <c r="F215" t="s" s="4">
+      <c r="E215" s="4"/>
+      <c r="F215" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
     </row>
-    <row r="216">
-      <c r="A216" t="s" s="1">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B216" t="s" s="1">
+      <c r="B216" s="1" t="s">
         <v>433</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="E216" t="n" s="4"/>
-      <c r="F216" t="s" s="4">
+      <c r="E216" s="4"/>
+      <c r="F216" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
     </row>
-    <row r="217">
-      <c r="A217" t="s" s="1">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B217" t="s" s="1">
+      <c r="B217" s="1" t="s">
         <v>435</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
-      <c r="E217" t="n" s="4"/>
-      <c r="F217" t="s" s="4">
+      <c r="E217" s="4"/>
+      <c r="F217" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" deleteColumns="true" deleteRows="true" formatColumns="true" formatRows="true" insertColumns="true" insertHyperlinks="true" insertRows="true"/>
-  <mergeCells>
+  <sheetProtection sheet="1"/>
+  <mergeCells count="9">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <dataValidations count="410">
-    <dataValidation type="decimal" operator="between" sqref="E8" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F8" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E9" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F9" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E10" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F10" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E11" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F11" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E12" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F12" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E13" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F13" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E14" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F14" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E15" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F15" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E16" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F16" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E17" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F17" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E18" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F18" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E19" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F19" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E20" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F20" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E21" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F21" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E22" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F22" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E23" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F23" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E24" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F24" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E25" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F25" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E28" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F28" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E29" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F29" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E30" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F30" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E31" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F31" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E32" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F32" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E33" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F33" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E34" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F34" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E35" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F35" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E36" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F36" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E37" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F37" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E38" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F38" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E39" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F39" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E40" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F40" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E42" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F42" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E43" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F43" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E44" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F44" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="C45" errorStyle="stop" allowBlank="true">
+    <dataValidation type="decimal" allowBlank="1" sqref="E8">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F8">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E9">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F9">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E10">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F10">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E11">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F11">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E12">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F12">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E13">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F13">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E14">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F14">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E15">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F15">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E16">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F16">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E17">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F17">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E18">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F18">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E19">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F19">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E20">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F20">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E21">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F21">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E22">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F22">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E23">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F23">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E24">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F24">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E25">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F25">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E28">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F28">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E29">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F29">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E30">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F30">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E31">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F31">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E32">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F32">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E33">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F33">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E34">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F34">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E35">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F35">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E36">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F36">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E37">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F37">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E38">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F38">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E39">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F39">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E40">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F40">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E42">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F42">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E43">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F43">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E44">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F44">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C45">
       <formula1>"Tyhjä,Hyväksytty,Hylätty"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D45" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E45" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F45" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E46" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F46" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E47" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F47" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="C48" errorStyle="stop" allowBlank="true">
+    <dataValidation type="list" allowBlank="1" sqref="D45">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E45">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F45">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E46">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F46">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E47">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F47">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C48">
       <formula1>"Tyhjä,Hyväksytty,Hylätty"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D48" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E48" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F48" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E49" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F49" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="C50" errorStyle="stop" allowBlank="true">
+    <dataValidation type="list" allowBlank="1" sqref="D48">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E48">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F48">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E49">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F49">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C50">
       <formula1>"Tyhjä,Hyväksytty,Hylätty"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D50" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E50" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F50" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E51" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F51" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E52" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F52" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E53" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F53" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E54" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F54" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E55" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F55" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E57" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F57" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E58" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F58" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E59" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F59" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E60" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F60" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E61" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F61" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E62" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F62" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E63" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F63" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="C64" errorStyle="stop" allowBlank="true">
+    <dataValidation type="list" allowBlank="1" sqref="D50">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E50">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F50">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E51">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F51">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E52">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F52">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E53">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F53">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E54">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F54">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E55">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F55">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E57">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F57">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E58">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F58">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E59">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F59">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E60">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F60">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E61">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F61">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E62">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F62">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E63">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F63">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C64">
       <formula1>"Tyhjä,Hyväksytty,Hylätty"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D64" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E64" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F64" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E65" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F65" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E66" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F66" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E67" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F67" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E68" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F68" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E69" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F69" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E71" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F71" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E72" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F72" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E73" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F73" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E74" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F74" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E75" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F75" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E76" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F76" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E77" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F77" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E78" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F78" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E80" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F80" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E81" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F81" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E82" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F82" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E83" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F83" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="C84" errorStyle="stop" allowBlank="true">
+    <dataValidation type="list" allowBlank="1" sqref="D64">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E64">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F64">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E65">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F65">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E66">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F66">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E67">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F67">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E68">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F68">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E69">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F69">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E71">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F71">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E72">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F72">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E73">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F73">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E74">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F74">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E75">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F75">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E76">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F76">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E77">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F77">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E78">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F78">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E80">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F80">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E81">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F81">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E82">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F82">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E83">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F83">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C84">
       <formula1>"Tyhjä,Hyväksytty,Hylätty"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D84" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E84" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F84" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E85" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F85" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E86" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F86" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E89" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F89" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E90" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F90" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E91" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F91" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E92" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F92" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E93" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F93" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E94" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F94" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E95" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F95" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E96" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F96" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E97" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F97" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E98" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F98" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E99" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F99" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E100" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F100" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E101" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F101" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E102" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F102" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E103" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F103" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E104" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F104" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E106" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F106" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E107" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F107" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E108" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F108" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E109" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F109" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E110" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F110" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E111" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F111" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E112" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F112" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E113" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F113" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E114" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F114" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E115" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F115" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E116" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F116" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E117" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F117" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E118" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F118" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="C119" errorStyle="stop" allowBlank="true">
+    <dataValidation type="list" allowBlank="1" sqref="D84">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E84">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F84">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E85">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F85">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E86">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F86">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E89">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F89">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E90">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F90">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E91">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F91">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E92">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F92">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E93">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F93">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E94">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F94">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E95">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F95">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E96">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F96">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E97">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F97">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E98">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F98">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E99">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F99">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E100">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F100">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E101">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F101">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E102">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F102">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E103">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F103">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E104">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F104">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E106">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F106">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E107">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F107">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E108">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F108">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E109">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F109">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E110">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F110">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E111">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F111">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E112">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F112">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E113">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F113">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E114">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F114">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E115">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F115">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E116">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F116">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E117">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F117">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E118">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F118">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C119">
       <formula1>"Tyhjä,Hyväksytty,Hylätty"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D119" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E119" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F119" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E120" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F120" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E121" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F121" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E122" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F122" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E123" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F123" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="C124" errorStyle="stop" allowBlank="true">
+    <dataValidation type="list" allowBlank="1" sqref="D119">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E119">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F119">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E120">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F120">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E121">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F121">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E122">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F122">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E123">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F123">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C124">
       <formula1>"Tyhjä,Hyväksytty,Hylätty"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D124" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E124" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F124" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E125" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F125" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E126" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F126" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E127" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F127" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E128" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F128" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E129" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F129" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E130" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F130" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E131" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F131" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E132" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F132" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E133" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F133" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E134" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F134" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E135" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F135" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E136" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F136" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E137" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F137" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E138" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F138" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E139" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F139" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E140" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F140" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E141" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F141" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E142" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F142" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E143" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F143" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E144" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F144" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E145" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F145" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E146" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F146" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E147" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F147" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="C148" errorStyle="stop" allowBlank="true">
+    <dataValidation type="list" allowBlank="1" sqref="D124">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E124">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F124">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E125">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F125">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E126">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F126">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E127">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F127">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E128">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F128">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E129">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F129">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E130">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F130">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E131">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F131">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E132">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F132">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E133">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F133">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E134">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F134">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E135">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F135">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E136">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F136">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E137">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F137">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E138">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F138">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E139">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F139">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E140">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F140">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E141">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F141">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E142">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F142">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E143">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F143">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E144">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F144">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E145">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F145">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E146">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F146">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E147">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F147">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C148">
       <formula1>"Tyhjä,Hyväksytty,Hylätty"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D148" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E148" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F148" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E149" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F149" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E150" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F150" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E151" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F151" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E153" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F153" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E154" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F154" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E156" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F156" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E157" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F157" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E158" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F158" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E159" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F159" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E160" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F160" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E161" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F161" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E162" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F162" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E163" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F163" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E164" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F164" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E165" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F165" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E166" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F166" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="C167" errorStyle="stop" allowBlank="true">
+    <dataValidation type="list" allowBlank="1" sqref="D148">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E148">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F148">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E149">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F149">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E150">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F150">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E151">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F151">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E153">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F153">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E154">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F154">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E156">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F156">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E157">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F157">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E158">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F158">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E159">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F159">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E160">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F160">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E161">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F161">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E162">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F162">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E163">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F163">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E164">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F164">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E165">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F165">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E166">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F166">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C167">
       <formula1>"Tyhjä,Hyväksytty,Hylätty"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D167" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E167" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F167" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E168" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F168" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E169" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F169" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E170" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F170" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E171" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F171" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E172" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F172" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E173" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F173" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E174" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F174" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E175" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F175" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E177" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F177" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="C178" errorStyle="stop" allowBlank="true">
+    <dataValidation type="list" allowBlank="1" sqref="D167">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E167">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F167">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E168">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F168">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E169">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F169">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E170">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F170">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E171">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F171">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E172">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F172">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E173">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F173">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E174">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F174">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E175">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F175">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E177">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F177">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C178">
       <formula1>"Tyhjä,Hyväksytty,Hylätty"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D178" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E178" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F178" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E179" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F179" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E180" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F180" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E181" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F181" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E182" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F182" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E183" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F183" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E184" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F184" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E185" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F185" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E187" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F187" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="C188" errorStyle="stop" allowBlank="true">
+    <dataValidation type="list" allowBlank="1" sqref="D178">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E178">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F178">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E179">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F179">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E180">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F180">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E181">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F181">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E182">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F182">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E183">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F183">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E184">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F184">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E185">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F185">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E187">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F187">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C188">
       <formula1>"Tyhjä,Hyväksytty,Hylätty"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D188" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E188" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F188" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E189" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F189" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E190" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F190" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E191" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F191" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E192" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F192" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E193" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F193" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E194" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F194" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E195" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F195" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E196" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F196" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E197" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F197" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E198" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F198" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E199" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F199" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E200" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F200" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E201" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F201" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E202" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F202" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E203" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F203" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E204" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F204" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E205" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F205" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E207" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F207" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E208" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F208" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E209" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F209" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E211" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F211" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E213" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F213" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E214" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F214" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E215" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F215" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E216" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F216" errorStyle="stop" allowBlank="true">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="E217" errorStyle="stop" allowBlank="true">
-      <formula1>0.0</formula1>
-      <formula2>10.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="F217" errorStyle="stop" allowBlank="true">
+    <dataValidation type="list" allowBlank="1" sqref="D188">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E188">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F188">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E189">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F189">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E190">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F190">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E191">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F191">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E192">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F192">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E193">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F193">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E194">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F194">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E195">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F195">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E196">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F196">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E197">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F197">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E198">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F198">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E199">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F199">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E200">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F200">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E201">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F201">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E202">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F202">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E203">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F203">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E204">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F204">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E205">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F205">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E207">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F207">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E208">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F208">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E209">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F209">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E211">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F211">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E213">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F213">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E214">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F214">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E215">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F215">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E216">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F216">
+      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" sqref="E217">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F217">
       <formula1>"Merkitsemättä,Osallistui,Ei osallistunut"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/pistesyotto/pistesyotto.xlsx
+++ b/src/test/resources/pistesyotto/pistesyotto.xlsx
@@ -1372,7 +1372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1383,9 +1383,13 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1669,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,62 +1689,62 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1768,7 +1772,9 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="7">
+        <v>41764</v>
+      </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
       </c>

--- a/src/test/resources/pistesyotto/pistesyotto.xlsx
+++ b/src/test/resources/pistesyotto/pistesyotto.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="438">
   <si>
     <t/>
   </si>
@@ -1327,6 +1327,12 @@
   </si>
   <si>
     <t>Ylävuori, Neea V</t>
+  </si>
+  <si>
+    <t>Hyväksytty</t>
+  </si>
+  <si>
+    <t>Hylätty</t>
   </si>
 </sst>
 </file>
@@ -1383,14 +1389,14 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1673,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,62 +1695,62 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1772,7 +1778,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>41764</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -2421,10 +2427,10 @@
         <v>90</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>91</v>
+        <v>436</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -2475,7 +2481,7 @@
         <v>98</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>91</v>
+        <v>436</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>92</v>
@@ -2511,10 +2517,10 @@
         <v>102</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>91</v>
+        <v>437</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
@@ -3057,10 +3063,10 @@
         <v>170</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>91</v>
+        <v>437</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
@@ -3615,7 +3621,7 @@
         <v>240</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>91</v>
+        <v>436</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>92</v>
@@ -3701,7 +3707,7 @@
         <v>250</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>91</v>
+        <v>437</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>92</v>
@@ -4396,7 +4402,7 @@
         <v>91</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4" t="s">
@@ -4574,7 +4580,7 @@
         <v>91</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E178" s="4"/>
       <c r="F178" s="4" t="s">
@@ -4733,10 +4739,10 @@
         <v>378</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>91</v>
+        <v>436</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E188" s="4"/>
       <c r="F188" s="4" t="s">

--- a/src/test/resources/pistesyotto/pistesyotto.xlsx
+++ b/src/test/resources/pistesyotto/pistesyotto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18820" tabRatio="500"/>
+    <workbookView xWindow="10820" yWindow="3700" windowWidth="25600" windowHeight="18820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1402,10 +1402,10 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1739,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1753,11 +1753,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1766,11 +1766,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1779,11 +1779,11 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1803,35 +1803,35 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
@@ -1866,9 +1866,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4">
-        <v>42129</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>

--- a/src/test/resources/pistesyotto/pistesyotto.xlsx
+++ b/src/test/resources/pistesyotto/pistesyotto.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessika/dev/oph/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/pistesyotto/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="3700" windowWidth="25600" windowHeight="18820" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="439">
   <si>
     <t>testioidi1</t>
   </si>
@@ -1333,6 +1338,9 @@
   </si>
   <si>
     <t>Henkilötunnus</t>
+  </si>
+  <si>
+    <t>Syntymäaika</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1406,12 +1414,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1737,103 +1754,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="3" max="4" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1843,20 +1866,23 @@
       <c r="C7" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1864,16 +1890,17 @@
         <v>13</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1881,18 +1908,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="5">
+      <c r="F9" s="3"/>
+      <c r="G9" s="5">
         <v>5</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1900,18 +1928,19 @@
         <v>19</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="5">
+      <c r="F10" s="3"/>
+      <c r="G10" s="5">
         <v>5</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1919,16 +1948,17 @@
         <v>21</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1936,18 +1966,19 @@
         <v>23</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="5">
+      <c r="F12" s="3"/>
+      <c r="G12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1955,18 +1986,19 @@
         <v>25</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="5">
+      <c r="F13" s="3"/>
+      <c r="G13" s="5">
         <v>3</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1974,18 +2006,19 @@
         <v>27</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="5">
+      <c r="F14" s="3"/>
+      <c r="G14" s="5">
         <v>5</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1993,18 +2026,19 @@
         <v>29</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="5">
+      <c r="F15" s="3"/>
+      <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2012,18 +2046,19 @@
         <v>31</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="5">
+      <c r="F16" s="3"/>
+      <c r="G16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,18 +2066,19 @@
         <v>33</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="5">
+      <c r="F17" s="3"/>
+      <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -2050,18 +2086,19 @@
         <v>35</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="5">
+      <c r="F18" s="3"/>
+      <c r="G18" s="5">
         <v>10</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -2069,18 +2106,19 @@
         <v>37</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="5">
+      <c r="F19" s="3"/>
+      <c r="G19" s="5">
         <v>5</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2088,18 +2126,19 @@
         <v>39</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="5">
+      <c r="F20" s="3"/>
+      <c r="G20" s="5">
         <v>5</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -2107,18 +2146,19 @@
         <v>41</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="5">
+      <c r="F21" s="3"/>
+      <c r="G21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -2126,18 +2166,19 @@
         <v>43</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="5">
+      <c r="F22" s="3"/>
+      <c r="G22" s="5">
         <v>3</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -2145,18 +2186,19 @@
         <v>45</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="5">
+      <c r="F23" s="3"/>
+      <c r="G23" s="5">
         <v>2</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,18 +2206,19 @@
         <v>47</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="5">
+      <c r="F24" s="3"/>
+      <c r="G24" s="5">
         <v>1</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -2183,18 +2226,19 @@
         <v>49</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="5">
+      <c r="F25" s="3"/>
+      <c r="G25" s="5">
         <v>5.6</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2202,14 +2246,15 @@
         <v>51</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2217,14 +2262,15 @@
         <v>53</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -2232,18 +2278,19 @@
         <v>55</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="5">
+      <c r="F28" s="3"/>
+      <c r="G28" s="5">
         <v>7</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2251,18 +2298,19 @@
         <v>57</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="5">
+      <c r="F29" s="3"/>
+      <c r="G29" s="5">
         <v>9</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -2270,18 +2318,19 @@
         <v>59</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="5">
+      <c r="F30" s="3"/>
+      <c r="G30" s="5">
         <v>3</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -2289,18 +2338,19 @@
         <v>61</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="5">
+      <c r="F31" s="3"/>
+      <c r="G31" s="5">
         <v>3</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -2308,18 +2358,19 @@
         <v>63</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="5">
+      <c r="F32" s="3"/>
+      <c r="G32" s="5">
         <v>8</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2327,18 +2378,19 @@
         <v>65</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="5">
+      <c r="F33" s="3"/>
+      <c r="G33" s="5">
         <v>3</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -2346,18 +2398,19 @@
         <v>67</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="5">
+      <c r="F34" s="3"/>
+      <c r="G34" s="5">
         <v>6</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -2365,18 +2418,19 @@
         <v>69</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="5">
+      <c r="F35" s="3"/>
+      <c r="G35" s="5">
         <v>7</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2384,16 +2438,17 @@
         <v>71</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -2401,18 +2456,19 @@
         <v>73</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="5">
+      <c r="F37" s="3"/>
+      <c r="G37" s="5">
         <v>7</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -2420,18 +2476,19 @@
         <v>75</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="5">
+      <c r="F38" s="3"/>
+      <c r="G38" s="5">
         <v>1</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -2439,18 +2496,19 @@
         <v>77</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="5">
+      <c r="F39" s="3"/>
+      <c r="G39" s="5">
         <v>4</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -2458,18 +2516,19 @@
         <v>79</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="5">
+      <c r="F40" s="3"/>
+      <c r="G40" s="5">
         <v>1</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -2477,14 +2536,15 @@
         <v>81</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -2492,18 +2552,19 @@
         <v>83</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="5">
+      <c r="F42" s="3"/>
+      <c r="G42" s="5">
         <v>4</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -2511,18 +2572,19 @@
         <v>85</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="5">
+      <c r="F43" s="3"/>
+      <c r="G43" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -2530,18 +2592,19 @@
         <v>87</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="5">
+      <c r="F44" s="3"/>
+      <c r="G44" s="5">
         <v>4</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -2549,22 +2612,23 @@
         <v>89</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>1</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
@@ -2572,16 +2636,17 @@
         <v>92</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -2589,16 +2654,17 @@
         <v>95</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -2606,20 +2672,21 @@
         <v>97</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H48" s="3"/>
+      <c r="F48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -2627,16 +2694,17 @@
         <v>99</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -2644,20 +2712,21 @@
         <v>101</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H50" s="3"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
@@ -2665,16 +2734,17 @@
         <v>104</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
@@ -2682,16 +2752,17 @@
         <v>106</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
@@ -2699,16 +2770,17 @@
         <v>108</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>109</v>
       </c>
@@ -2716,16 +2788,17 @@
         <v>110</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="7"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
@@ -2733,16 +2806,17 @@
         <v>112</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>113</v>
       </c>
@@ -2750,14 +2824,15 @@
         <v>114</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>115</v>
       </c>
@@ -2765,16 +2840,17 @@
         <v>116</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
@@ -2782,16 +2858,17 @@
         <v>118</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>119</v>
       </c>
@@ -2799,16 +2876,17 @@
         <v>120</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="7"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
@@ -2816,16 +2894,17 @@
         <v>122</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>123</v>
       </c>
@@ -2833,16 +2912,17 @@
         <v>124</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="7"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
@@ -2850,16 +2930,17 @@
         <v>126</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="3"/>
+      <c r="D62" s="7"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
@@ -2867,16 +2948,17 @@
         <v>128</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="3"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>129</v>
       </c>
@@ -2884,20 +2966,21 @@
         <v>130</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="7"/>
+      <c r="E64" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H64" s="3"/>
+      <c r="F64" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
@@ -2905,16 +2988,17 @@
         <v>133</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="3"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>134</v>
       </c>
@@ -2922,16 +3006,17 @@
         <v>135</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>136</v>
       </c>
@@ -2939,16 +3024,17 @@
         <v>137</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="7"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>138</v>
       </c>
@@ -2956,16 +3042,17 @@
         <v>139</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="3"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>140</v>
       </c>
@@ -2973,16 +3060,17 @@
         <v>141</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="7"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
@@ -2990,14 +3078,15 @@
         <v>143</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
@@ -3005,16 +3094,17 @@
         <v>145</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="3"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
@@ -3022,16 +3112,17 @@
         <v>147</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="7"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>148</v>
       </c>
@@ -3039,16 +3130,17 @@
         <v>149</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="7"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>150</v>
       </c>
@@ -3056,16 +3148,17 @@
         <v>151</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="3"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>152</v>
       </c>
@@ -3073,16 +3166,17 @@
         <v>153</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="3"/>
+      <c r="D75" s="7"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>154</v>
       </c>
@@ -3090,16 +3184,17 @@
         <v>155</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="7"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>156</v>
       </c>
@@ -3107,16 +3202,17 @@
         <v>157</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -3124,16 +3220,17 @@
         <v>159</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="3"/>
+      <c r="D78" s="7"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>160</v>
       </c>
@@ -3141,14 +3238,15 @@
         <v>161</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="3"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>162</v>
       </c>
@@ -3156,16 +3254,17 @@
         <v>163</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="3"/>
+      <c r="D80" s="7"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>164</v>
       </c>
@@ -3173,16 +3272,17 @@
         <v>165</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="7"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>166</v>
       </c>
@@ -3190,16 +3290,17 @@
         <v>167</v>
       </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="7"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>168</v>
       </c>
@@ -3207,16 +3308,17 @@
         <v>169</v>
       </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="3"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>170</v>
       </c>
@@ -3224,20 +3326,21 @@
         <v>171</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="7"/>
+      <c r="E84" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="F84" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H84" s="3"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>172</v>
       </c>
@@ -3245,16 +3348,17 @@
         <v>173</v>
       </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="3"/>
+      <c r="D85" s="7"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>174</v>
       </c>
@@ -3262,16 +3366,17 @@
         <v>175</v>
       </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="3"/>
+      <c r="D86" s="7"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>176</v>
       </c>
@@ -3279,14 +3384,15 @@
         <v>177</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="3"/>
+      <c r="D87" s="7"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>178</v>
       </c>
@@ -3294,14 +3400,15 @@
         <v>179</v>
       </c>
       <c r="C88" s="1"/>
-      <c r="D88" s="3"/>
+      <c r="D88" s="7"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>180</v>
       </c>
@@ -3309,16 +3416,17 @@
         <v>181</v>
       </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="3"/>
+      <c r="D89" s="7"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>182</v>
       </c>
@@ -3326,16 +3434,17 @@
         <v>183</v>
       </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="7"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>184</v>
       </c>
@@ -3343,16 +3452,17 @@
         <v>185</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="3"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>186</v>
       </c>
@@ -3360,16 +3470,17 @@
         <v>187</v>
       </c>
       <c r="C92" s="1"/>
-      <c r="D92" s="3"/>
+      <c r="D92" s="7"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>188</v>
       </c>
@@ -3377,16 +3488,17 @@
         <v>189</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="3"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>190</v>
       </c>
@@ -3394,16 +3506,17 @@
         <v>191</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="3"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>192</v>
       </c>
@@ -3411,16 +3524,17 @@
         <v>193</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="3"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>194</v>
       </c>
@@ -3428,16 +3542,17 @@
         <v>195</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="7"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>196</v>
       </c>
@@ -3445,16 +3560,17 @@
         <v>197</v>
       </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="3"/>
+      <c r="D97" s="7"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>198</v>
       </c>
@@ -3462,16 +3578,17 @@
         <v>199</v>
       </c>
       <c r="C98" s="1"/>
-      <c r="D98" s="3"/>
+      <c r="D98" s="7"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>200</v>
       </c>
@@ -3479,16 +3596,17 @@
         <v>201</v>
       </c>
       <c r="C99" s="1"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="7"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>202</v>
       </c>
@@ -3496,16 +3614,17 @@
         <v>203</v>
       </c>
       <c r="C100" s="1"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="7"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>204</v>
       </c>
@@ -3513,16 +3632,17 @@
         <v>205</v>
       </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="3"/>
+      <c r="D101" s="7"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>206</v>
       </c>
@@ -3530,16 +3650,17 @@
         <v>207</v>
       </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="3"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>208</v>
       </c>
@@ -3547,16 +3668,17 @@
         <v>209</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="7"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>210</v>
       </c>
@@ -3564,16 +3686,17 @@
         <v>211</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="3"/>
+      <c r="D104" s="7"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>212</v>
       </c>
@@ -3581,14 +3704,15 @@
         <v>213</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="3"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>214</v>
       </c>
@@ -3596,16 +3720,17 @@
         <v>215</v>
       </c>
       <c r="C106" s="1"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="7"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>216</v>
       </c>
@@ -3613,16 +3738,17 @@
         <v>217</v>
       </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="3"/>
+      <c r="D107" s="7"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>218</v>
       </c>
@@ -3630,16 +3756,17 @@
         <v>219</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="3"/>
+      <c r="D108" s="7"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>220</v>
       </c>
@@ -3647,16 +3774,17 @@
         <v>221</v>
       </c>
       <c r="C109" s="1"/>
-      <c r="D109" s="3"/>
+      <c r="D109" s="7"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>222</v>
       </c>
@@ -3664,16 +3792,17 @@
         <v>223</v>
       </c>
       <c r="C110" s="1"/>
-      <c r="D110" s="3"/>
+      <c r="D110" s="7"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>224</v>
       </c>
@@ -3681,16 +3810,17 @@
         <v>225</v>
       </c>
       <c r="C111" s="1"/>
-      <c r="D111" s="3"/>
+      <c r="D111" s="7"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>226</v>
       </c>
@@ -3698,16 +3828,17 @@
         <v>227</v>
       </c>
       <c r="C112" s="1"/>
-      <c r="D112" s="3"/>
+      <c r="D112" s="7"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I112" s="3"/>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>228</v>
       </c>
@@ -3715,16 +3846,17 @@
         <v>229</v>
       </c>
       <c r="C113" s="1"/>
-      <c r="D113" s="3"/>
+      <c r="D113" s="7"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I113" s="3"/>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>230</v>
       </c>
@@ -3732,16 +3864,17 @@
         <v>231</v>
       </c>
       <c r="C114" s="1"/>
-      <c r="D114" s="3"/>
+      <c r="D114" s="7"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I114" s="3"/>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>232</v>
       </c>
@@ -3749,16 +3882,17 @@
         <v>233</v>
       </c>
       <c r="C115" s="1"/>
-      <c r="D115" s="3"/>
+      <c r="D115" s="7"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I115" s="3"/>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>234</v>
       </c>
@@ -3766,16 +3900,17 @@
         <v>235</v>
       </c>
       <c r="C116" s="1"/>
-      <c r="D116" s="3"/>
+      <c r="D116" s="7"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I116" s="3"/>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>236</v>
       </c>
@@ -3783,16 +3918,17 @@
         <v>237</v>
       </c>
       <c r="C117" s="1"/>
-      <c r="D117" s="3"/>
+      <c r="D117" s="7"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I117" s="3"/>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>238</v>
       </c>
@@ -3800,16 +3936,17 @@
         <v>239</v>
       </c>
       <c r="C118" s="1"/>
-      <c r="D118" s="3"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I118" s="3"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>240</v>
       </c>
@@ -3817,20 +3954,21 @@
         <v>241</v>
       </c>
       <c r="C119" s="1"/>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="7"/>
+      <c r="E119" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E119" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H119" s="3"/>
+      <c r="F119" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I119" s="3"/>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>242</v>
       </c>
@@ -3838,18 +3976,19 @@
         <v>243</v>
       </c>
       <c r="C120" s="1"/>
-      <c r="D120" s="3"/>
+      <c r="D120" s="7"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="5">
+      <c r="F120" s="3"/>
+      <c r="G120" s="5">
         <v>6.6</v>
       </c>
-      <c r="G120" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H120" s="3"/>
+      <c r="H120" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I120" s="3"/>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>244</v>
       </c>
@@ -3857,16 +3996,17 @@
         <v>245</v>
       </c>
       <c r="C121" s="1"/>
-      <c r="D121" s="3"/>
+      <c r="D121" s="7"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I121" s="3"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>246</v>
       </c>
@@ -3874,16 +4014,17 @@
         <v>247</v>
       </c>
       <c r="C122" s="1"/>
-      <c r="D122" s="3"/>
+      <c r="D122" s="7"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I122" s="3"/>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>248</v>
       </c>
@@ -3891,16 +4032,17 @@
         <v>249</v>
       </c>
       <c r="C123" s="1"/>
-      <c r="D123" s="3"/>
+      <c r="D123" s="7"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I123" s="3"/>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>250</v>
       </c>
@@ -3908,20 +4050,21 @@
         <v>251</v>
       </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="7"/>
+      <c r="E124" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H124" s="3"/>
+      <c r="F124" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I124" s="3"/>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>252</v>
       </c>
@@ -3929,16 +4072,17 @@
         <v>253</v>
       </c>
       <c r="C125" s="1"/>
-      <c r="D125" s="3"/>
+      <c r="D125" s="7"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I125" s="3"/>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>254</v>
       </c>
@@ -3946,16 +4090,17 @@
         <v>255</v>
       </c>
       <c r="C126" s="1"/>
-      <c r="D126" s="3"/>
+      <c r="D126" s="7"/>
       <c r="E126" s="3"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I126" s="3"/>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>256</v>
       </c>
@@ -3963,16 +4108,17 @@
         <v>257</v>
       </c>
       <c r="C127" s="1"/>
-      <c r="D127" s="3"/>
+      <c r="D127" s="7"/>
       <c r="E127" s="3"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I127" s="3"/>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>258</v>
       </c>
@@ -3980,16 +4126,17 @@
         <v>259</v>
       </c>
       <c r="C128" s="1"/>
-      <c r="D128" s="3"/>
+      <c r="D128" s="7"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I128" s="3"/>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>260</v>
       </c>
@@ -3997,16 +4144,17 @@
         <v>261</v>
       </c>
       <c r="C129" s="1"/>
-      <c r="D129" s="3"/>
+      <c r="D129" s="7"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I129" s="3"/>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>262</v>
       </c>
@@ -4014,16 +4162,17 @@
         <v>263</v>
       </c>
       <c r="C130" s="1"/>
-      <c r="D130" s="3"/>
+      <c r="D130" s="7"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I130" s="3"/>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>264</v>
       </c>
@@ -4031,16 +4180,17 @@
         <v>265</v>
       </c>
       <c r="C131" s="1"/>
-      <c r="D131" s="3"/>
+      <c r="D131" s="7"/>
       <c r="E131" s="3"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I131" s="3"/>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>266</v>
       </c>
@@ -4048,16 +4198,17 @@
         <v>267</v>
       </c>
       <c r="C132" s="1"/>
-      <c r="D132" s="3"/>
+      <c r="D132" s="7"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I132" s="3"/>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>268</v>
       </c>
@@ -4065,16 +4216,17 @@
         <v>269</v>
       </c>
       <c r="C133" s="1"/>
-      <c r="D133" s="3"/>
+      <c r="D133" s="7"/>
       <c r="E133" s="3"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I133" s="3"/>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>270</v>
       </c>
@@ -4082,16 +4234,17 @@
         <v>271</v>
       </c>
       <c r="C134" s="1"/>
-      <c r="D134" s="3"/>
+      <c r="D134" s="7"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I134" s="3"/>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>272</v>
       </c>
@@ -4099,16 +4252,17 @@
         <v>273</v>
       </c>
       <c r="C135" s="1"/>
-      <c r="D135" s="3"/>
+      <c r="D135" s="7"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I135" s="3"/>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>274</v>
       </c>
@@ -4116,16 +4270,17 @@
         <v>275</v>
       </c>
       <c r="C136" s="1"/>
-      <c r="D136" s="3"/>
+      <c r="D136" s="7"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I136" s="3"/>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" s="3"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>276</v>
       </c>
@@ -4133,16 +4288,17 @@
         <v>277</v>
       </c>
       <c r="C137" s="1"/>
-      <c r="D137" s="3"/>
+      <c r="D137" s="7"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I137" s="3"/>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>278</v>
       </c>
@@ -4150,16 +4306,17 @@
         <v>279</v>
       </c>
       <c r="C138" s="1"/>
-      <c r="D138" s="3"/>
+      <c r="D138" s="7"/>
       <c r="E138" s="3"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I138" s="3"/>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>280</v>
       </c>
@@ -4167,16 +4324,17 @@
         <v>281</v>
       </c>
       <c r="C139" s="1"/>
-      <c r="D139" s="3"/>
+      <c r="D139" s="7"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I139" s="3"/>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" s="3"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>282</v>
       </c>
@@ -4184,16 +4342,17 @@
         <v>283</v>
       </c>
       <c r="C140" s="1"/>
-      <c r="D140" s="3"/>
+      <c r="D140" s="7"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I140" s="3"/>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140" s="3"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>284</v>
       </c>
@@ -4201,16 +4360,17 @@
         <v>285</v>
       </c>
       <c r="C141" s="1"/>
-      <c r="D141" s="3"/>
+      <c r="D141" s="7"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I141" s="3"/>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141" s="3"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>286</v>
       </c>
@@ -4218,16 +4378,17 @@
         <v>287</v>
       </c>
       <c r="C142" s="1"/>
-      <c r="D142" s="3"/>
+      <c r="D142" s="7"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I142" s="3"/>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142" s="3"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>288</v>
       </c>
@@ -4235,16 +4396,17 @@
         <v>289</v>
       </c>
       <c r="C143" s="1"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="7"/>
       <c r="E143" s="3"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I143" s="3"/>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="J143" s="3"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>290</v>
       </c>
@@ -4252,16 +4414,17 @@
         <v>291</v>
       </c>
       <c r="C144" s="1"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="7"/>
       <c r="E144" s="3"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I144" s="3"/>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144" s="3"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>292</v>
       </c>
@@ -4269,16 +4432,17 @@
         <v>293</v>
       </c>
       <c r="C145" s="1"/>
-      <c r="D145" s="3"/>
+      <c r="D145" s="7"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I145" s="3"/>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145" s="3"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>294</v>
       </c>
@@ -4286,16 +4450,17 @@
         <v>295</v>
       </c>
       <c r="C146" s="1"/>
-      <c r="D146" s="3"/>
+      <c r="D146" s="7"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I146" s="3"/>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146" s="3"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>296</v>
       </c>
@@ -4303,16 +4468,17 @@
         <v>297</v>
       </c>
       <c r="C147" s="1"/>
-      <c r="D147" s="3"/>
+      <c r="D147" s="7"/>
       <c r="E147" s="3"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I147" s="3"/>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="J147" s="3"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>298</v>
       </c>
@@ -4320,20 +4486,21 @@
         <v>299</v>
       </c>
       <c r="C148" s="1"/>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="7"/>
+      <c r="E148" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E148" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H148" s="3"/>
+      <c r="F148" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I148" s="3"/>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="J148" s="3"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>300</v>
       </c>
@@ -4341,16 +4508,17 @@
         <v>301</v>
       </c>
       <c r="C149" s="1"/>
-      <c r="D149" s="3"/>
+      <c r="D149" s="7"/>
       <c r="E149" s="3"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I149" s="3"/>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149" s="3"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>302</v>
       </c>
@@ -4358,16 +4526,17 @@
         <v>303</v>
       </c>
       <c r="C150" s="1"/>
-      <c r="D150" s="3"/>
+      <c r="D150" s="7"/>
       <c r="E150" s="3"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I150" s="3"/>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150" s="3"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>304</v>
       </c>
@@ -4375,16 +4544,17 @@
         <v>305</v>
       </c>
       <c r="C151" s="1"/>
-      <c r="D151" s="3"/>
+      <c r="D151" s="7"/>
       <c r="E151" s="3"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I151" s="3"/>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="J151" s="3"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>306</v>
       </c>
@@ -4392,14 +4562,15 @@
         <v>307</v>
       </c>
       <c r="C152" s="1"/>
-      <c r="D152" s="3"/>
+      <c r="D152" s="7"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="J152" s="3"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>308</v>
       </c>
@@ -4407,16 +4578,17 @@
         <v>309</v>
       </c>
       <c r="C153" s="1"/>
-      <c r="D153" s="3"/>
+      <c r="D153" s="7"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I153" s="3"/>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="J153" s="3"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>310</v>
       </c>
@@ -4424,16 +4596,17 @@
         <v>311</v>
       </c>
       <c r="C154" s="1"/>
-      <c r="D154" s="3"/>
+      <c r="D154" s="7"/>
       <c r="E154" s="3"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I154" s="3"/>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154" s="3"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>312</v>
       </c>
@@ -4441,14 +4614,15 @@
         <v>313</v>
       </c>
       <c r="C155" s="1"/>
-      <c r="D155" s="3"/>
+      <c r="D155" s="7"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="J155" s="3"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>314</v>
       </c>
@@ -4456,16 +4630,17 @@
         <v>315</v>
       </c>
       <c r="C156" s="1"/>
-      <c r="D156" s="3"/>
+      <c r="D156" s="7"/>
       <c r="E156" s="3"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I156" s="3"/>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156" s="3"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>316</v>
       </c>
@@ -4473,16 +4648,17 @@
         <v>317</v>
       </c>
       <c r="C157" s="1"/>
-      <c r="D157" s="3"/>
+      <c r="D157" s="7"/>
       <c r="E157" s="3"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I157" s="3"/>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="J157" s="3"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>318</v>
       </c>
@@ -4490,16 +4666,17 @@
         <v>319</v>
       </c>
       <c r="C158" s="1"/>
-      <c r="D158" s="3"/>
+      <c r="D158" s="7"/>
       <c r="E158" s="3"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I158" s="3"/>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="J158" s="3"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>320</v>
       </c>
@@ -4507,16 +4684,17 @@
         <v>321</v>
       </c>
       <c r="C159" s="1"/>
-      <c r="D159" s="3"/>
+      <c r="D159" s="7"/>
       <c r="E159" s="3"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I159" s="3"/>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" s="3"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>322</v>
       </c>
@@ -4524,16 +4702,17 @@
         <v>323</v>
       </c>
       <c r="C160" s="1"/>
-      <c r="D160" s="3"/>
+      <c r="D160" s="7"/>
       <c r="E160" s="3"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I160" s="3"/>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="J160" s="3"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>324</v>
       </c>
@@ -4541,16 +4720,17 @@
         <v>325</v>
       </c>
       <c r="C161" s="1"/>
-      <c r="D161" s="3"/>
+      <c r="D161" s="7"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I161" s="3"/>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="J161" s="3"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>326</v>
       </c>
@@ -4558,16 +4738,17 @@
         <v>327</v>
       </c>
       <c r="C162" s="1"/>
-      <c r="D162" s="3"/>
+      <c r="D162" s="7"/>
       <c r="E162" s="3"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I162" s="3"/>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="J162" s="3"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>328</v>
       </c>
@@ -4575,16 +4756,17 @@
         <v>329</v>
       </c>
       <c r="C163" s="1"/>
-      <c r="D163" s="3"/>
+      <c r="D163" s="7"/>
       <c r="E163" s="3"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I163" s="3"/>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="J163" s="3"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>330</v>
       </c>
@@ -4592,16 +4774,17 @@
         <v>331</v>
       </c>
       <c r="C164" s="1"/>
-      <c r="D164" s="3"/>
+      <c r="D164" s="7"/>
       <c r="E164" s="3"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I164" s="3"/>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="J164" s="3"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>332</v>
       </c>
@@ -4609,16 +4792,17 @@
         <v>333</v>
       </c>
       <c r="C165" s="1"/>
-      <c r="D165" s="3"/>
+      <c r="D165" s="7"/>
       <c r="E165" s="3"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I165" s="3"/>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165" s="3"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>334</v>
       </c>
@@ -4626,16 +4810,17 @@
         <v>335</v>
       </c>
       <c r="C166" s="1"/>
-      <c r="D166" s="3"/>
+      <c r="D166" s="7"/>
       <c r="E166" s="3"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I166" s="3"/>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="J166" s="3"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>336</v>
       </c>
@@ -4643,20 +4828,21 @@
         <v>337</v>
       </c>
       <c r="C167" s="1"/>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="7"/>
+      <c r="E167" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="F167" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H167" s="3"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I167" s="3"/>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="J167" s="3"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>338</v>
       </c>
@@ -4664,16 +4850,17 @@
         <v>339</v>
       </c>
       <c r="C168" s="1"/>
-      <c r="D168" s="3"/>
+      <c r="D168" s="7"/>
       <c r="E168" s="3"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I168" s="3"/>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="J168" s="3"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>340</v>
       </c>
@@ -4681,16 +4868,17 @@
         <v>341</v>
       </c>
       <c r="C169" s="1"/>
-      <c r="D169" s="3"/>
+      <c r="D169" s="7"/>
       <c r="E169" s="3"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I169" s="3"/>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="J169" s="3"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>342</v>
       </c>
@@ -4698,16 +4886,17 @@
         <v>343</v>
       </c>
       <c r="C170" s="1"/>
-      <c r="D170" s="3"/>
+      <c r="D170" s="7"/>
       <c r="E170" s="3"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I170" s="3"/>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="J170" s="3"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>344</v>
       </c>
@@ -4715,16 +4904,17 @@
         <v>345</v>
       </c>
       <c r="C171" s="1"/>
-      <c r="D171" s="3"/>
+      <c r="D171" s="7"/>
       <c r="E171" s="3"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I171" s="3"/>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="J171" s="3"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>346</v>
       </c>
@@ -4732,16 +4922,17 @@
         <v>347</v>
       </c>
       <c r="C172" s="1"/>
-      <c r="D172" s="3"/>
+      <c r="D172" s="7"/>
       <c r="E172" s="3"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I172" s="3"/>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="J172" s="3"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>348</v>
       </c>
@@ -4749,16 +4940,17 @@
         <v>349</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="3"/>
+      <c r="D173" s="7"/>
       <c r="E173" s="3"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I173" s="3"/>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173" s="3"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>350</v>
       </c>
@@ -4766,16 +4958,17 @@
         <v>351</v>
       </c>
       <c r="C174" s="1"/>
-      <c r="D174" s="3"/>
+      <c r="D174" s="7"/>
       <c r="E174" s="3"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I174" s="3"/>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174" s="3"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>352</v>
       </c>
@@ -4783,16 +4976,17 @@
         <v>353</v>
       </c>
       <c r="C175" s="1"/>
-      <c r="D175" s="3"/>
+      <c r="D175" s="7"/>
       <c r="E175" s="3"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I175" s="3"/>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175" s="3"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>354</v>
       </c>
@@ -4800,14 +4994,15 @@
         <v>355</v>
       </c>
       <c r="C176" s="1"/>
-      <c r="D176" s="3"/>
+      <c r="D176" s="7"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176" s="3"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>356</v>
       </c>
@@ -4815,16 +5010,17 @@
         <v>357</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="3"/>
+      <c r="D177" s="7"/>
       <c r="E177" s="3"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I177" s="3"/>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177" s="3"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>358</v>
       </c>
@@ -4832,20 +5028,21 @@
         <v>359</v>
       </c>
       <c r="C178" s="1"/>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="7"/>
+      <c r="E178" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="F178" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H178" s="3"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I178" s="3"/>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="J178" s="3"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>360</v>
       </c>
@@ -4853,16 +5050,17 @@
         <v>361</v>
       </c>
       <c r="C179" s="1"/>
-      <c r="D179" s="3"/>
+      <c r="D179" s="7"/>
       <c r="E179" s="3"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I179" s="3"/>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179" s="3"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>362</v>
       </c>
@@ -4870,16 +5068,17 @@
         <v>363</v>
       </c>
       <c r="C180" s="1"/>
-      <c r="D180" s="3"/>
+      <c r="D180" s="7"/>
       <c r="E180" s="3"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I180" s="3"/>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180" s="3"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>364</v>
       </c>
@@ -4887,16 +5086,17 @@
         <v>365</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="3"/>
+      <c r="D181" s="7"/>
       <c r="E181" s="3"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I181" s="3"/>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="J181" s="3"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>366</v>
       </c>
@@ -4904,16 +5104,17 @@
         <v>367</v>
       </c>
       <c r="C182" s="1"/>
-      <c r="D182" s="3"/>
+      <c r="D182" s="7"/>
       <c r="E182" s="3"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I182" s="3"/>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182" s="3"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>368</v>
       </c>
@@ -4921,16 +5122,17 @@
         <v>369</v>
       </c>
       <c r="C183" s="1"/>
-      <c r="D183" s="3"/>
+      <c r="D183" s="7"/>
       <c r="E183" s="3"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I183" s="3"/>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="J183" s="3"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>370</v>
       </c>
@@ -4938,16 +5140,17 @@
         <v>371</v>
       </c>
       <c r="C184" s="1"/>
-      <c r="D184" s="3"/>
+      <c r="D184" s="7"/>
       <c r="E184" s="3"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I184" s="3"/>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="J184" s="3"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>372</v>
       </c>
@@ -4955,16 +5158,17 @@
         <v>373</v>
       </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="3"/>
+      <c r="D185" s="7"/>
       <c r="E185" s="3"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I185" s="3"/>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="J185" s="3"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>374</v>
       </c>
@@ -4972,14 +5176,15 @@
         <v>375</v>
       </c>
       <c r="C186" s="1"/>
-      <c r="D186" s="3"/>
+      <c r="D186" s="7"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="J186" s="3"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>376</v>
       </c>
@@ -4987,16 +5192,17 @@
         <v>377</v>
       </c>
       <c r="C187" s="1"/>
-      <c r="D187" s="3"/>
+      <c r="D187" s="7"/>
       <c r="E187" s="3"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I187" s="3"/>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="J187" s="3"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>378</v>
       </c>
@@ -5004,20 +5210,21 @@
         <v>379</v>
       </c>
       <c r="C188" s="1"/>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="7"/>
+      <c r="E188" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="F188" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H188" s="3"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I188" s="3"/>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="J188" s="3"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>380</v>
       </c>
@@ -5025,16 +5232,17 @@
         <v>381</v>
       </c>
       <c r="C189" s="1"/>
-      <c r="D189" s="3"/>
+      <c r="D189" s="7"/>
       <c r="E189" s="3"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I189" s="3"/>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="J189" s="3"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>382</v>
       </c>
@@ -5042,16 +5250,17 @@
         <v>383</v>
       </c>
       <c r="C190" s="1"/>
-      <c r="D190" s="3"/>
+      <c r="D190" s="7"/>
       <c r="E190" s="3"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I190" s="3"/>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190" s="3"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>384</v>
       </c>
@@ -5059,16 +5268,17 @@
         <v>385</v>
       </c>
       <c r="C191" s="1"/>
-      <c r="D191" s="3"/>
+      <c r="D191" s="7"/>
       <c r="E191" s="3"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I191" s="3"/>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="J191" s="3"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>386</v>
       </c>
@@ -5076,16 +5286,17 @@
         <v>387</v>
       </c>
       <c r="C192" s="1"/>
-      <c r="D192" s="3"/>
+      <c r="D192" s="7"/>
       <c r="E192" s="3"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I192" s="3"/>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="J192" s="3"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>388</v>
       </c>
@@ -5093,16 +5304,17 @@
         <v>389</v>
       </c>
       <c r="C193" s="1"/>
-      <c r="D193" s="3"/>
+      <c r="D193" s="7"/>
       <c r="E193" s="3"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I193" s="3"/>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="J193" s="3"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>390</v>
       </c>
@@ -5110,16 +5322,17 @@
         <v>391</v>
       </c>
       <c r="C194" s="1"/>
-      <c r="D194" s="3"/>
+      <c r="D194" s="7"/>
       <c r="E194" s="3"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I194" s="3"/>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194" s="3"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>392</v>
       </c>
@@ -5127,16 +5340,17 @@
         <v>393</v>
       </c>
       <c r="C195" s="1"/>
-      <c r="D195" s="3"/>
+      <c r="D195" s="7"/>
       <c r="E195" s="3"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I195" s="3"/>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195" s="3"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>394</v>
       </c>
@@ -5144,16 +5358,17 @@
         <v>395</v>
       </c>
       <c r="C196" s="1"/>
-      <c r="D196" s="3"/>
+      <c r="D196" s="7"/>
       <c r="E196" s="3"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I196" s="3"/>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="J196" s="3"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>396</v>
       </c>
@@ -5161,16 +5376,17 @@
         <v>397</v>
       </c>
       <c r="C197" s="1"/>
-      <c r="D197" s="3"/>
+      <c r="D197" s="7"/>
       <c r="E197" s="3"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I197" s="3"/>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="J197" s="3"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>398</v>
       </c>
@@ -5178,16 +5394,17 @@
         <v>399</v>
       </c>
       <c r="C198" s="1"/>
-      <c r="D198" s="3"/>
+      <c r="D198" s="7"/>
       <c r="E198" s="3"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I198" s="3"/>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="J198" s="3"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>400</v>
       </c>
@@ -5195,16 +5412,17 @@
         <v>401</v>
       </c>
       <c r="C199" s="1"/>
-      <c r="D199" s="3"/>
+      <c r="D199" s="7"/>
       <c r="E199" s="3"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I199" s="3"/>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="J199" s="3"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>402</v>
       </c>
@@ -5212,16 +5430,17 @@
         <v>403</v>
       </c>
       <c r="C200" s="1"/>
-      <c r="D200" s="3"/>
+      <c r="D200" s="7"/>
       <c r="E200" s="3"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I200" s="3"/>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="J200" s="3"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>404</v>
       </c>
@@ -5229,16 +5448,17 @@
         <v>405</v>
       </c>
       <c r="C201" s="1"/>
-      <c r="D201" s="3"/>
+      <c r="D201" s="7"/>
       <c r="E201" s="3"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I201" s="3"/>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="J201" s="3"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>406</v>
       </c>
@@ -5246,16 +5466,17 @@
         <v>407</v>
       </c>
       <c r="C202" s="1"/>
-      <c r="D202" s="3"/>
+      <c r="D202" s="7"/>
       <c r="E202" s="3"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I202" s="3"/>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="J202" s="3"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>408</v>
       </c>
@@ -5263,16 +5484,17 @@
         <v>409</v>
       </c>
       <c r="C203" s="1"/>
-      <c r="D203" s="3"/>
+      <c r="D203" s="7"/>
       <c r="E203" s="3"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I203" s="3"/>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="J203" s="3"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>410</v>
       </c>
@@ -5280,16 +5502,17 @@
         <v>411</v>
       </c>
       <c r="C204" s="1"/>
-      <c r="D204" s="3"/>
+      <c r="D204" s="7"/>
       <c r="E204" s="3"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I204" s="3"/>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="J204" s="3"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>412</v>
       </c>
@@ -5297,16 +5520,17 @@
         <v>413</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="D205" s="3"/>
+      <c r="D205" s="7"/>
       <c r="E205" s="3"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I205" s="3"/>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="J205" s="3"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>414</v>
       </c>
@@ -5314,14 +5538,15 @@
         <v>415</v>
       </c>
       <c r="C206" s="1"/>
-      <c r="D206" s="3"/>
+      <c r="D206" s="7"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="J206" s="3"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>416</v>
       </c>
@@ -5329,16 +5554,17 @@
         <v>417</v>
       </c>
       <c r="C207" s="1"/>
-      <c r="D207" s="3"/>
+      <c r="D207" s="7"/>
       <c r="E207" s="3"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I207" s="3"/>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="J207" s="3"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>418</v>
       </c>
@@ -5346,16 +5572,17 @@
         <v>419</v>
       </c>
       <c r="C208" s="1"/>
-      <c r="D208" s="3"/>
+      <c r="D208" s="7"/>
       <c r="E208" s="3"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I208" s="3"/>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="J208" s="3"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>420</v>
       </c>
@@ -5363,16 +5590,17 @@
         <v>421</v>
       </c>
       <c r="C209" s="1"/>
-      <c r="D209" s="3"/>
+      <c r="D209" s="7"/>
       <c r="E209" s="3"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I209" s="3"/>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="J209" s="3"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>422</v>
       </c>
@@ -5380,14 +5608,15 @@
         <v>423</v>
       </c>
       <c r="C210" s="1"/>
-      <c r="D210" s="3"/>
+      <c r="D210" s="7"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="J210" s="3"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>424</v>
       </c>
@@ -5395,16 +5624,17 @@
         <v>425</v>
       </c>
       <c r="C211" s="1"/>
-      <c r="D211" s="3"/>
+      <c r="D211" s="7"/>
       <c r="E211" s="3"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I211" s="3"/>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="J211" s="3"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>426</v>
       </c>
@@ -5412,14 +5642,15 @@
         <v>427</v>
       </c>
       <c r="C212" s="1"/>
-      <c r="D212" s="3"/>
+      <c r="D212" s="7"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="J212" s="3"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>428</v>
       </c>
@@ -5427,16 +5658,17 @@
         <v>429</v>
       </c>
       <c r="C213" s="1"/>
-      <c r="D213" s="3"/>
+      <c r="D213" s="7"/>
       <c r="E213" s="3"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I213" s="3"/>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="J213" s="3"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>430</v>
       </c>
@@ -5444,16 +5676,17 @@
         <v>431</v>
       </c>
       <c r="C214" s="1"/>
-      <c r="D214" s="3"/>
+      <c r="D214" s="7"/>
       <c r="E214" s="3"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I214" s="3"/>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="J214" s="3"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>432</v>
       </c>
@@ -5461,16 +5694,17 @@
         <v>431</v>
       </c>
       <c r="C215" s="1"/>
-      <c r="D215" s="3"/>
+      <c r="D215" s="7"/>
       <c r="E215" s="3"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I215" s="3"/>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="J215" s="3"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>433</v>
       </c>
@@ -5478,16 +5712,17 @@
         <v>434</v>
       </c>
       <c r="C216" s="1"/>
-      <c r="D216" s="3"/>
+      <c r="D216" s="7"/>
       <c r="E216" s="3"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I216" s="3"/>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="J216" s="3"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>435</v>
       </c>
@@ -5495,32 +5730,28 @@
         <v>436</v>
       </c>
       <c r="C217" s="1"/>
-      <c r="D217" s="3"/>
+      <c r="D217" s="7"/>
       <c r="E217" s="3"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/pistesyotto/pistesyotto.xlsx
+++ b/src/test/resources/pistesyotto/pistesyotto.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessika/dev/oph/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/pistesyotto/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16420" tabRatio="500"/>
   </bookViews>
@@ -1395,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1410,6 +1405,10 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1754,61 +1753,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="3" max="4" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1820,43 +1819,43 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1882,50 +1881,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="5">
-        <v>5</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="7"/>
@@ -1940,57 +1931,57 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="7"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
       <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="7"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="5">
-        <v>2</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>17</v>
@@ -1998,19 +1989,19 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="7"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>17</v>
@@ -2018,19 +2009,19 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>17</v>
@@ -2038,19 +2029,19 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="7"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>17</v>
@@ -2058,19 +2049,19 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="7"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>17</v>
@@ -2078,19 +2069,19 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="7"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>17</v>
@@ -2098,19 +2089,19 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="7"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>17</v>
@@ -2118,12 +2109,12 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="7"/>
@@ -2138,19 +2129,19 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>17</v>
@@ -2158,19 +2149,19 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="7"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>17</v>
@@ -2178,19 +2169,19 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="7"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>17</v>
@@ -2198,19 +2189,19 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="7"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>17</v>
@@ -2218,19 +2209,19 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="5">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>17</v>
@@ -2238,28 +2229,32 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="7"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="7"/>
@@ -2270,39 +2265,35 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="5">
-        <v>7</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="7"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>17</v>
@@ -2310,19 +2301,19 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="7"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>17</v>
@@ -2330,12 +2321,12 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="7"/>
@@ -2350,19 +2341,19 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="7"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>17</v>
@@ -2370,19 +2361,19 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="7"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>17</v>
@@ -2390,19 +2381,19 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="7"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>17</v>
@@ -2410,19 +2401,19 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="7"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>17</v>
@@ -2430,57 +2421,57 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="7"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5">
+        <v>7</v>
+      </c>
       <c r="H36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="5">
-        <v>7</v>
-      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="7"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>17</v>
@@ -2488,19 +2479,19 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="7"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>17</v>
@@ -2508,19 +2499,19 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="7"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>17</v>
@@ -2528,55 +2519,55 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="7"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="7"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="5">
-        <v>4</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="7"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>17</v>
@@ -2584,19 +2575,19 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="7"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>17</v>
@@ -2604,23 +2595,19 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
       <c r="G45" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>17</v>
@@ -2628,30 +2615,36 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
       <c r="H46" s="5" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="7"/>
@@ -2664,21 +2657,17 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
         <v>93</v>
@@ -2686,17 +2675,21 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="E49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
         <v>93</v>
@@ -2704,21 +2697,17 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
         <v>93</v>
@@ -2726,17 +2715,21 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="E51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
         <v>93</v>
@@ -2744,12 +2737,12 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="7"/>
@@ -2762,12 +2755,12 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="7"/>
@@ -2780,12 +2773,12 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="7"/>
@@ -2798,12 +2791,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="7"/>
@@ -2816,46 +2809,46 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="7"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="7"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="7"/>
@@ -2868,12 +2861,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="7"/>
@@ -2886,12 +2879,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="7"/>
@@ -2904,12 +2897,12 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="7"/>
@@ -2922,12 +2915,12 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="7"/>
@@ -2940,12 +2933,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="7"/>
@@ -2958,21 +2951,17 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
         <v>93</v>
@@ -2980,17 +2969,21 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="E65" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
         <v>93</v>
@@ -2998,12 +2991,12 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="7"/>
@@ -3016,12 +3009,12 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="7"/>
@@ -3034,12 +3027,12 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="7"/>
@@ -3052,12 +3045,12 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="7"/>
@@ -3070,46 +3063,46 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="7"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="7"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="7"/>
@@ -3122,12 +3115,12 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="7"/>
@@ -3140,12 +3133,12 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="7"/>
@@ -3158,12 +3151,12 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="7"/>
@@ -3176,12 +3169,12 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="7"/>
@@ -3194,12 +3187,12 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
@@ -3212,12 +3205,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="7"/>
@@ -3230,46 +3223,46 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="7"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="7"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="7"/>
@@ -3282,12 +3275,12 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="7"/>
@@ -3300,12 +3293,12 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="7"/>
@@ -3318,21 +3311,17 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
         <v>93</v>
@@ -3340,17 +3329,21 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="E85" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
         <v>93</v>
@@ -3358,12 +3351,12 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="7"/>
@@ -3376,28 +3369,30 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="7"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="7"/>
@@ -3408,30 +3403,28 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="7"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="7"/>
@@ -3444,12 +3437,12 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="7"/>
@@ -3462,12 +3455,12 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="7"/>
@@ -3480,12 +3473,12 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="7"/>
@@ -3498,12 +3491,12 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="7"/>
@@ -3516,12 +3509,12 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="7"/>
@@ -3534,12 +3527,12 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="7"/>
@@ -3552,12 +3545,12 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="7"/>
@@ -3570,12 +3563,12 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="7"/>
@@ -3588,12 +3581,12 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="7"/>
@@ -3606,12 +3599,12 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="7"/>
@@ -3624,12 +3617,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="7"/>
@@ -3642,12 +3635,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="7"/>
@@ -3660,12 +3653,12 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="7"/>
@@ -3678,12 +3671,12 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="7"/>
@@ -3696,46 +3689,46 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="7"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="7"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="7"/>
@@ -3748,12 +3741,12 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="7"/>
@@ -3766,12 +3759,12 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="7"/>
@@ -3784,12 +3777,12 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="7"/>
@@ -3802,12 +3795,12 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="7"/>
@@ -3820,12 +3813,12 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="7"/>
@@ -3838,12 +3831,12 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="7"/>
@@ -3856,12 +3849,12 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="7"/>
@@ -3874,12 +3867,12 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="7"/>
@@ -3892,12 +3885,12 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="7"/>
@@ -3910,12 +3903,12 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="7"/>
@@ -3928,12 +3921,12 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="7"/>
@@ -3946,21 +3939,17 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="7"/>
-      <c r="E119" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5" t="s">
         <v>93</v>
@@ -3968,50 +3957,54 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="5">
-        <v>6.6</v>
-      </c>
+      <c r="E120" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G120" s="5"/>
       <c r="H120" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="7"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="5"/>
+      <c r="G121" s="5">
+        <v>6.6</v>
+      </c>
       <c r="H121" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="7"/>
@@ -4024,12 +4017,12 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="7"/>
@@ -4042,21 +4035,17 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="7"/>
-      <c r="E124" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5" t="s">
         <v>93</v>
@@ -4064,17 +4053,21 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="7"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="E125" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5" t="s">
         <v>93</v>
@@ -4082,12 +4075,12 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="7"/>
@@ -4100,12 +4093,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="7"/>
@@ -4118,12 +4111,12 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="7"/>
@@ -4136,12 +4129,12 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="7"/>
@@ -4154,12 +4147,12 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="7"/>
@@ -4172,12 +4165,12 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="7"/>
@@ -4190,12 +4183,12 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="7"/>
@@ -4208,12 +4201,12 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="7"/>
@@ -4226,12 +4219,12 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="7"/>
@@ -4244,12 +4237,12 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="7"/>
@@ -4262,12 +4255,12 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="7"/>
@@ -4280,12 +4273,12 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="7"/>
@@ -4298,12 +4291,12 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="7"/>
@@ -4316,12 +4309,12 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="7"/>
@@ -4334,12 +4327,12 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="7"/>
@@ -4352,12 +4345,12 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="7"/>
@@ -4370,12 +4363,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="7"/>
@@ -4388,12 +4381,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="7"/>
@@ -4406,12 +4399,12 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="7"/>
@@ -4424,12 +4417,12 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="7"/>
@@ -4442,12 +4435,12 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="7"/>
@@ -4460,12 +4453,12 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="7"/>
@@ -4478,21 +4471,17 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="7"/>
-      <c r="E148" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5" t="s">
         <v>93</v>
@@ -4500,17 +4489,21 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
+      <c r="E149" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5" t="s">
         <v>93</v>
@@ -4518,12 +4511,12 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="7"/>
@@ -4536,12 +4529,12 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="7"/>
@@ -4554,46 +4547,46 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="7"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="7"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="7"/>
@@ -4606,46 +4599,46 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="7"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="7"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="7"/>
@@ -4658,12 +4651,12 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="7"/>
@@ -4676,12 +4669,12 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="7"/>
@@ -4694,12 +4687,12 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="7"/>
@@ -4712,12 +4705,12 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="7"/>
@@ -4730,12 +4723,12 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="7"/>
@@ -4748,12 +4741,12 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="7"/>
@@ -4766,12 +4759,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="7"/>
@@ -4784,12 +4777,12 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="7"/>
@@ -4802,12 +4795,12 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="7"/>
@@ -4820,21 +4813,17 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="7"/>
-      <c r="E167" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5" t="s">
         <v>93</v>
@@ -4842,17 +4831,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="7"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
+      <c r="E168" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5" t="s">
         <v>93</v>
@@ -4860,12 +4853,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="7"/>
@@ -4878,12 +4871,12 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="7"/>
@@ -4896,12 +4889,12 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="7"/>
@@ -4914,12 +4907,12 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="7"/>
@@ -4932,12 +4925,12 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="7"/>
@@ -4950,12 +4943,12 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="7"/>
@@ -4968,12 +4961,12 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="7"/>
@@ -4986,55 +4979,51 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="7"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="7"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="7"/>
-      <c r="E178" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5" t="s">
         <v>93</v>
@@ -5042,17 +5031,21 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="7"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
+      <c r="E179" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5" t="s">
         <v>93</v>
@@ -5060,12 +5053,12 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="7"/>
@@ -5078,12 +5071,12 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="7"/>
@@ -5096,12 +5089,12 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="7"/>
@@ -5114,12 +5107,12 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="7"/>
@@ -5132,12 +5125,12 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="7"/>
@@ -5150,12 +5143,12 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="7"/>
@@ -5168,55 +5161,51 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="7"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="7"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="7"/>
-      <c r="E188" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F188" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
       <c r="G188" s="5"/>
       <c r="H188" s="5" t="s">
         <v>93</v>
@@ -5224,17 +5213,21 @@
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="7"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
+      <c r="E189" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
         <v>93</v>
@@ -5242,12 +5235,12 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="7"/>
@@ -5260,12 +5253,12 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="7"/>
@@ -5278,12 +5271,12 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="7"/>
@@ -5296,12 +5289,12 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="7"/>
@@ -5314,12 +5307,12 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="7"/>
@@ -5332,12 +5325,12 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="7"/>
@@ -5350,12 +5343,12 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="7"/>
@@ -5368,12 +5361,12 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="7"/>
@@ -5386,12 +5379,12 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="7"/>
@@ -5404,12 +5397,12 @@
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="7"/>
@@ -5422,12 +5415,12 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="7"/>
@@ -5440,12 +5433,12 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="7"/>
@@ -5458,12 +5451,12 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="7"/>
@@ -5476,12 +5469,12 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="7"/>
@@ -5494,12 +5487,12 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="7"/>
@@ -5512,12 +5505,12 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="7"/>
@@ -5530,46 +5523,46 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="7"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="7"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="7"/>
@@ -5582,12 +5575,12 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="7"/>
@@ -5600,80 +5593,80 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="7"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="7"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="7"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="7"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="7"/>
@@ -5686,9 +5679,9 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>431</v>
@@ -5704,12 +5697,12 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="7"/>
@@ -5722,12 +5715,12 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="7"/>
@@ -5739,6 +5732,24 @@
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C218" s="1"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5753,5 +5764,10 @@
     <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/pistesyotto/pistesyotto.xlsx
+++ b/src/test/resources/pistesyotto/pistesyotto.xlsx
@@ -20,1323 +20,1320 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="439">
-  <si>
-    <t xml:space="preserve">testioidi1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.5.85532589612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.3.44444.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kielikoe_fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eläintenhoidon koulutusohjelma, pk (Maatalousalan perustutkinto), pääsy- ja soveltuvuuskoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_2_246_562_5_85532589612_urheilija_lisapiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kielikoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pääsy- ja soveltuvuuskoe (0.0 - 10.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urheilijan lisäpiste (0 - 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hakemus OID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiedot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henkilötunnus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syntymäaika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osallistuminen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000061010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alajoki, Amanda I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ei osallistunut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000284402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alalahti, Elmeri V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osallistui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000307525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alaniemi, Emil IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000116114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alavirta, Eeli II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000099163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alavuori, Lilja XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000025441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alavuori, Toivo IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000002150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alavuori, Vili VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000046255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alawaara, Jimi I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000175867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heppa-Suonio, Niko VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000124504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heppajärvi, Elisabeth X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000425711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heppalahti, Aleksanteri IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000034843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heppaniemi, Inkeri IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000173937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heppaniemi, Kalevi VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000028299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heppaniemi, Maija III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000203425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heppavirta, Kristian IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000212940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heppavuori, Henrik VII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000343453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heppawaara, Susanna IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000312471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippi-Suonio, Aada X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000386245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippijärvi, Iina IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000015891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippilahti, Ilona V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000075734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippilahti, Juhani III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000086927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippisalo, Kalevi X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000071563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippivuori, Luka II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000184942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huis-Suonio, Helena IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000439833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huis-Suonio, Markus IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000393005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huisjärvi, Laura X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000011345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huisjärvi, Viljami IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000290098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huislahti, Konsta IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000127174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huisnen, Antero XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000094236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huisnen, Leevi VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000143174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huisvaara, Veera XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000272582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huisvirta, Daniel I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000253938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hupijärvi, Aurora VII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000252913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hupinen, Juhani V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000310185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hupinen, Miro IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000347145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hupiniemi, Nea VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000082439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hupisalo, Iina IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000080389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hupisalo, Maija VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyväksytty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000042848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hupivuori, Aleksi IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merkitsemättä</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000366838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hupivuori, Elmeri III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000407360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hupivuori, Juhani IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000205164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hupiwaara, Kerttu VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000177988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyväjärvi, Otto XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hylätty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000268910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyvälahti, Antero VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000231086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyvämäki, Alexandra III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000274580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyväsalo, Tuulia XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000303587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyvävuori, Anni V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000286235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyvävuori, Daniel II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000440929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jokunen, Jesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000006761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juupajoki, Siiri IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000110877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juupajärvi, Luka III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000254270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juupalahti, Emmi IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000020129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juupalahti, Siiri X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000234481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juupanen, Luka IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000165806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juupanen, Nea II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000125671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juupaniemi, Kaarina XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000184272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juupavaara, Eevi IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyhjä</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000025674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaksi-Suonio, Lumi VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000020860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaksijoki, Nea IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000239088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaksijärvi, Sara III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000267403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaksilahti, Johannes V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000299536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaksilahti, Juho X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000412876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaksilahti, Nelli XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000074094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaksiniemi, Veikko I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000205261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaksivirta, Kristiina III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000263151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karhulahti, Julius V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000179274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karhulahti, Nella IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000050940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karhumäki, Leo XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000141037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karhumäki, Nooa XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000266792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karhuwaara, Anton VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000211048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelpojoki, Olavi I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000090366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelposalo, Santeri VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000419879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelpovirta, Aleksandra XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000017462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelpovirta, Markus V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000320612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelpowaara, Toivo III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000431983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keskijoki, Oskari II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000103800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keskijoki, Silja VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000301424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keskijärvi, Roope XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000103703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keskijärvi, Veera VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000266336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keskilahti, Luka V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000440149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keskivaara, Antero II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000284279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keskiwaara, Roope I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000376996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilpi-Suonio, Olavi III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000400723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilpi-Suonio, Silja III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000028273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilpilahti, Eero X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000084233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilpiniemi, Pinja XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000023304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilpivirta, Sofia III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000103512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilpivuori, Iiris IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000423904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilpiwaara, Petteri X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000029146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisällijoki, Santeri V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000174664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisällijärvi, Josefiina XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000004213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisällilahti, Otto II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000418977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisällinen, Emma VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000081935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisällinen, Inkeri X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000386643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisällinen, Vilho I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000063940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisälliniemi, Niilo V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000238843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisällivaara, Aino II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000405074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisällivaara, Ilona III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000415640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisällivaara, Johannes X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000135014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisällivirta, Antero IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000270063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisällivuori, Leo III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000353126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kollijoki, Lilja VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000071262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kollijärvi, Veera XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000113298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kollilahti, Nea II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000298485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kollilahti, Väinö XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000259466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kollinen, Ronja II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000060464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolliniemi, Anton VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000072038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kollisalo, Iida VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000220848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koodari-Suonio, Ville IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000202002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koodarijoki, Jenna IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000026181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koodarilahti, Anna VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000327893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koodarimäki, Henrik I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000044969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koodariniemi, Elisabeth IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000080910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koodarivuori, Iina I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000006198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koodarivuori, Matilda VII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000040837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuusijoki, Ilona I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000084864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuusilahti, Kasper VII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000077680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuusimäki, Amalia II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000337579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuusimäki, Julius IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000070946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuusinen, Ella II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000155719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuusiniemi, Toivo III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000396235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuusiwaara, Lotta XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000284460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merijoki, Onni XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000416937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merijoki, Vilho III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000074201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merimäki, Aatu III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000138008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merimäki, Kristian X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000082455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merinen, Aurora I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000106085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merinen, Helena III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000012137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meriniemi, Aapo II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000338057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merivirta, Antero II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000317094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paakarijoki, Inka II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000156381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paakarijoki, Linnea VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000361338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paakarijoki, Peppi IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000087120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paakariniemi, Eemeli VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000267623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paakarivaara, Olavi XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000068958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paakariwaara, Kristian II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000294557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puoli-Suonio, Jere VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000296940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puoli-Suonio, Sakari I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000393270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puolijoki, Roope II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000173911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puolilahti, Jenna IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000060710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puolilahti, Viljami II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000361118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puolimäki, Eemeli I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000113939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puolimäki, Petteri IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000007032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puoliniemi, Jere IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000406031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puolivirta, Emma I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000054085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puolivuori, Aurora I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000138820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puolivuori, Olivia I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000340472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puoliwaara, Sara XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000082484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranta-Suonio, Ilona VII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000074340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rantamäki, Nea III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000094922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rantanen, Ilona X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000040688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rantasalo, Saana VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000089047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rantavaara, Minttu VII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000384755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rantavaara, Ville VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000388450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rantavuori, Aino IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000121248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salli-Suonio, Aino I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000060613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sallijärvi, Daniel V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000342988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sallijärvi, Iiris III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000412245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sallimäki, Anniina I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000240844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seilori-Suonio, Elmeri IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000015590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seilorilahti, Aleksandra III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000100049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seilorisalo, Peppi XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000326771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seilorivaara, Alina XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000034380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seilorivuori, Ella V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000226952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seiloriwaara, Hilla X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000093279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seppä-Suonio, Minttu II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000135959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seppäjoki, Inkeri X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000376310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seppäjoki, Rasmus VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000336101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seppälahti, Ilmari III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000227210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seppävirta, Matilda IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000069193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seppäwaara, Minttu X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000065223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suomi-Suonio, Viivi IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000051143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suomi-Suonio, Vilhelmiina VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000296241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suomilahti, Vilhelmiina I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000266404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suominen, Juho IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000006088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suomivaara, Tapio IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000046284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suomivaara, Toivo V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000287425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suomivirta, Emma VII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000368784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suomivirta, Saana III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000176989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vihtajoki, Ilmari XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000320324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vihtajärvi, Oskari II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000392925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vihtanen, Tuomas III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000319500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vihtavuori, Iina V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000397221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vintturiniemi, Aada III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000125901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vintturiniemi, Ilona I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000169051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vintturiniemi, Lumi XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000154480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vintturisalo, Elias III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000191456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitsi-Suonio, Aaro VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000131364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitsi-Suonio, Josefiina X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000010540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitsilahti, Enni IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000208488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitsilahti, Milja VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000076827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitsisalo, Karoliina II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000272252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitsisalo, Veera II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000415226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitsivirta, Milla X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000268017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitsiwaara, Arttu VII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000145473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylppöjärvi, Olavi VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000052566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylppölahti, Niklas VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000155298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylppölahti, Peppi II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000420172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylppövaara, Saara IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000063953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylppövaara, Samuel XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000156080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylppövirta, Helena VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000168696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylä-Suonio, Topias V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000207638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yläjärvi, Ilona VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000315601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylänen, Johanna I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000259657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylävaara, Arttu V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000080130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylävaara, Onni X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000010731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylävirta, Julius V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000068110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000200156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylävirta, Konsta IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.246.562.11.00000005610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ylävuori, Neea V</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="438">
+  <si>
+    <t>2018-01-18T12:09:40.970+02:00</t>
+  </si>
+  <si>
+    <t>testioidi1</t>
+  </si>
+  <si>
+    <t>1.2.246.562.5.85532589612</t>
+  </si>
+  <si>
+    <t>1.2.3.44444.5</t>
+  </si>
+  <si>
+    <t>kielikoe_fi</t>
+  </si>
+  <si>
+    <t>Eläintenhoidon koulutusohjelma, pk (Maatalousalan perustutkinto), pääsy- ja soveltuvuuskoe</t>
+  </si>
+  <si>
+    <t>1_2_246_562_5_85532589612_urheilija_lisapiste</t>
+  </si>
+  <si>
+    <t>Kielikoe</t>
+  </si>
+  <si>
+    <t>Pääsy- ja soveltuvuuskoe (0.0 - 10.0)</t>
+  </si>
+  <si>
+    <t>Urheilijan lisäpiste (0 - 3)</t>
+  </si>
+  <si>
+    <t>Hakemus OID</t>
+  </si>
+  <si>
+    <t>Tiedot</t>
+  </si>
+  <si>
+    <t>Henkilötunnus</t>
+  </si>
+  <si>
+    <t>Syntymäaika</t>
+  </si>
+  <si>
+    <t>Osallistuminen</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000061010</t>
+  </si>
+  <si>
+    <t>Alajoki, Amanda I</t>
+  </si>
+  <si>
+    <t>Ei osallistunut</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000284402</t>
+  </si>
+  <si>
+    <t>Alalahti, Elmeri V</t>
+  </si>
+  <si>
+    <t>Osallistui</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000307525</t>
+  </si>
+  <si>
+    <t>Alaniemi, Emil IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000116114</t>
+  </si>
+  <si>
+    <t>Alavirta, Eeli II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000099163</t>
+  </si>
+  <si>
+    <t>Alavuori, Lilja XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000025441</t>
+  </si>
+  <si>
+    <t>Alavuori, Toivo IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000002150</t>
+  </si>
+  <si>
+    <t>Alavuori, Vili VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000046255</t>
+  </si>
+  <si>
+    <t>Alawaara, Jimi I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000175867</t>
+  </si>
+  <si>
+    <t>Heppa-Suonio, Niko VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000124504</t>
+  </si>
+  <si>
+    <t>Heppajärvi, Elisabeth X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000425711</t>
+  </si>
+  <si>
+    <t>Heppalahti, Aleksanteri IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000034843</t>
+  </si>
+  <si>
+    <t>Heppaniemi, Inkeri IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000173937</t>
+  </si>
+  <si>
+    <t>Heppaniemi, Kalevi VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000028299</t>
+  </si>
+  <si>
+    <t>Heppaniemi, Maija III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000203425</t>
+  </si>
+  <si>
+    <t>Heppavirta, Kristian IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000212940</t>
+  </si>
+  <si>
+    <t>Heppavuori, Henrik VII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000343453</t>
+  </si>
+  <si>
+    <t>Heppawaara, Susanna IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000312471</t>
+  </si>
+  <si>
+    <t>Hippi-Suonio, Aada X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000386245</t>
+  </si>
+  <si>
+    <t>Hippijärvi, Iina IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000015891</t>
+  </si>
+  <si>
+    <t>Hippilahti, Ilona V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000075734</t>
+  </si>
+  <si>
+    <t>Hippilahti, Juhani III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000086927</t>
+  </si>
+  <si>
+    <t>Hippisalo, Kalevi X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000071563</t>
+  </si>
+  <si>
+    <t>Hippivuori, Luka II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000184942</t>
+  </si>
+  <si>
+    <t>Huis-Suonio, Helena IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000439833</t>
+  </si>
+  <si>
+    <t>Huis-Suonio, Markus IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000393005</t>
+  </si>
+  <si>
+    <t>Huisjärvi, Laura X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000011345</t>
+  </si>
+  <si>
+    <t>Huisjärvi, Viljami IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000290098</t>
+  </si>
+  <si>
+    <t>Huislahti, Konsta IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000127174</t>
+  </si>
+  <si>
+    <t>Huisnen, Antero XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000094236</t>
+  </si>
+  <si>
+    <t>Huisnen, Leevi VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000143174</t>
+  </si>
+  <si>
+    <t>Huisvaara, Veera XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000272582</t>
+  </si>
+  <si>
+    <t>Huisvirta, Daniel I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000253938</t>
+  </si>
+  <si>
+    <t>Hupijärvi, Aurora VII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000252913</t>
+  </si>
+  <si>
+    <t>Hupinen, Juhani V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000310185</t>
+  </si>
+  <si>
+    <t>Hupinen, Miro IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000347145</t>
+  </si>
+  <si>
+    <t>Hupiniemi, Nea VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000082439</t>
+  </si>
+  <si>
+    <t>Hupisalo, Iina IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000080389</t>
+  </si>
+  <si>
+    <t>Hupisalo, Maija VI</t>
+  </si>
+  <si>
+    <t>Hyväksytty</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000042848</t>
+  </si>
+  <si>
+    <t>Hupivuori, Aleksi IX</t>
+  </si>
+  <si>
+    <t>Merkitsemättä</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000366838</t>
+  </si>
+  <si>
+    <t>Hupivuori, Elmeri III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000407360</t>
+  </si>
+  <si>
+    <t>Hupivuori, Juhani IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000205164</t>
+  </si>
+  <si>
+    <t>Hupiwaara, Kerttu VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000177988</t>
+  </si>
+  <si>
+    <t>Hyväjärvi, Otto XX</t>
+  </si>
+  <si>
+    <t>Hylätty</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000268910</t>
+  </si>
+  <si>
+    <t>Hyvälahti, Antero VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000231086</t>
+  </si>
+  <si>
+    <t>Hyvämäki, Alexandra III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000274580</t>
+  </si>
+  <si>
+    <t>Hyväsalo, Tuulia XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000303587</t>
+  </si>
+  <si>
+    <t>Hyvävuori, Anni V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000286235</t>
+  </si>
+  <si>
+    <t>Hyvävuori, Daniel II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000006761</t>
+  </si>
+  <si>
+    <t>Juupajoki, Siiri IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000110877</t>
+  </si>
+  <si>
+    <t>Juupajärvi, Luka III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000254270</t>
+  </si>
+  <si>
+    <t>Juupalahti, Emmi IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000020129</t>
+  </si>
+  <si>
+    <t>Juupalahti, Siiri X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000234481</t>
+  </si>
+  <si>
+    <t>Juupanen, Luka IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000165806</t>
+  </si>
+  <si>
+    <t>Juupanen, Nea II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000125671</t>
+  </si>
+  <si>
+    <t>Juupaniemi, Kaarina XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000184272</t>
+  </si>
+  <si>
+    <t>Juupavaara, Eevi IV</t>
+  </si>
+  <si>
+    <t>Tyhjä</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000025674</t>
+  </si>
+  <si>
+    <t>Kaksi-Suonio, Lumi VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000020860</t>
+  </si>
+  <si>
+    <t>Kaksijoki, Nea IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000239088</t>
+  </si>
+  <si>
+    <t>Kaksijärvi, Sara III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000267403</t>
+  </si>
+  <si>
+    <t>Kaksilahti, Johannes V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000299536</t>
+  </si>
+  <si>
+    <t>Kaksilahti, Juho X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000412876</t>
+  </si>
+  <si>
+    <t>Kaksilahti, Nelli XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000074094</t>
+  </si>
+  <si>
+    <t>Kaksiniemi, Veikko I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000205261</t>
+  </si>
+  <si>
+    <t>Kaksivirta, Kristiina III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000263151</t>
+  </si>
+  <si>
+    <t>Karhulahti, Julius V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000179274</t>
+  </si>
+  <si>
+    <t>Karhulahti, Nella IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000050940</t>
+  </si>
+  <si>
+    <t>Karhumäki, Leo XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000141037</t>
+  </si>
+  <si>
+    <t>Karhumäki, Nooa XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000266792</t>
+  </si>
+  <si>
+    <t>Karhuwaara, Anton VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000211048</t>
+  </si>
+  <si>
+    <t>Kelpojoki, Olavi I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000090366</t>
+  </si>
+  <si>
+    <t>Kelposalo, Santeri VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000419879</t>
+  </si>
+  <si>
+    <t>Kelpovirta, Aleksandra XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000017462</t>
+  </si>
+  <si>
+    <t>Kelpovirta, Markus V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000320612</t>
+  </si>
+  <si>
+    <t>Kelpowaara, Toivo III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000431983</t>
+  </si>
+  <si>
+    <t>Keskijoki, Oskari II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000103800</t>
+  </si>
+  <si>
+    <t>Keskijoki, Silja VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000301424</t>
+  </si>
+  <si>
+    <t>Keskijärvi, Roope XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000103703</t>
+  </si>
+  <si>
+    <t>Keskijärvi, Veera VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000266336</t>
+  </si>
+  <si>
+    <t>Keskilahti, Luka V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000440149</t>
+  </si>
+  <si>
+    <t>Keskivaara, Antero II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000284279</t>
+  </si>
+  <si>
+    <t>Keskiwaara, Roope I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000376996</t>
+  </si>
+  <si>
+    <t>Kilpi-Suonio, Olavi III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000400723</t>
+  </si>
+  <si>
+    <t>Kilpi-Suonio, Silja III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000028273</t>
+  </si>
+  <si>
+    <t>Kilpilahti, Eero X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000084233</t>
+  </si>
+  <si>
+    <t>Kilpiniemi, Pinja XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000023304</t>
+  </si>
+  <si>
+    <t>Kilpivirta, Sofia III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000103512</t>
+  </si>
+  <si>
+    <t>Kilpivuori, Iiris IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000423904</t>
+  </si>
+  <si>
+    <t>Kilpiwaara, Petteri X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000029146</t>
+  </si>
+  <si>
+    <t>Kisällijoki, Santeri V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000174664</t>
+  </si>
+  <si>
+    <t>Kisällijärvi, Josefiina XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000004213</t>
+  </si>
+  <si>
+    <t>Kisällilahti, Otto II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000418977</t>
+  </si>
+  <si>
+    <t>Kisällinen, Emma VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000081935</t>
+  </si>
+  <si>
+    <t>Kisällinen, Inkeri X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000386643</t>
+  </si>
+  <si>
+    <t>Kisällinen, Vilho I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000063940</t>
+  </si>
+  <si>
+    <t>Kisälliniemi, Niilo V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000238843</t>
+  </si>
+  <si>
+    <t>Kisällivaara, Aino II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000405074</t>
+  </si>
+  <si>
+    <t>Kisällivaara, Ilona III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000415640</t>
+  </si>
+  <si>
+    <t>Kisällivaara, Johannes X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000135014</t>
+  </si>
+  <si>
+    <t>Kisällivirta, Antero IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000270063</t>
+  </si>
+  <si>
+    <t>Kisällivuori, Leo III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000353126</t>
+  </si>
+  <si>
+    <t>Kollijoki, Lilja VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000071262</t>
+  </si>
+  <si>
+    <t>Kollijärvi, Veera XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000113298</t>
+  </si>
+  <si>
+    <t>Kollilahti, Nea II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000298485</t>
+  </si>
+  <si>
+    <t>Kollilahti, Väinö XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000259466</t>
+  </si>
+  <si>
+    <t>Kollinen, Ronja II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000060464</t>
+  </si>
+  <si>
+    <t>Kolliniemi, Anton VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000072038</t>
+  </si>
+  <si>
+    <t>Kollisalo, Iida VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000220848</t>
+  </si>
+  <si>
+    <t>Koodari-Suonio, Ville IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000202002</t>
+  </si>
+  <si>
+    <t>Koodarijoki, Jenna IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000026181</t>
+  </si>
+  <si>
+    <t>Koodarilahti, Anna VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000327893</t>
+  </si>
+  <si>
+    <t>Koodarimäki, Henrik I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000044969</t>
+  </si>
+  <si>
+    <t>Koodariniemi, Elisabeth IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000080910</t>
+  </si>
+  <si>
+    <t>Koodarivuori, Iina I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000006198</t>
+  </si>
+  <si>
+    <t>Koodarivuori, Matilda VII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000040837</t>
+  </si>
+  <si>
+    <t>Kuusijoki, Ilona I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000084864</t>
+  </si>
+  <si>
+    <t>Kuusilahti, Kasper VII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000077680</t>
+  </si>
+  <si>
+    <t>Kuusimäki, Amalia II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000337579</t>
+  </si>
+  <si>
+    <t>Kuusimäki, Julius IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000070946</t>
+  </si>
+  <si>
+    <t>Kuusinen, Ella II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000155719</t>
+  </si>
+  <si>
+    <t>Kuusiniemi, Toivo III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000396235</t>
+  </si>
+  <si>
+    <t>Kuusiwaara, Lotta XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000284460</t>
+  </si>
+  <si>
+    <t>Merijoki, Onni XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000416937</t>
+  </si>
+  <si>
+    <t>Merijoki, Vilho III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000074201</t>
+  </si>
+  <si>
+    <t>Merimäki, Aatu III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000138008</t>
+  </si>
+  <si>
+    <t>Merimäki, Kristian X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000082455</t>
+  </si>
+  <si>
+    <t>Merinen, Aurora I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000106085</t>
+  </si>
+  <si>
+    <t>Merinen, Helena III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000012137</t>
+  </si>
+  <si>
+    <t>Meriniemi, Aapo II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000338057</t>
+  </si>
+  <si>
+    <t>Merivirta, Antero II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000317094</t>
+  </si>
+  <si>
+    <t>Paakarijoki, Inka II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000156381</t>
+  </si>
+  <si>
+    <t>Paakarijoki, Linnea VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000361338</t>
+  </si>
+  <si>
+    <t>Paakarijoki, Peppi IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000087120</t>
+  </si>
+  <si>
+    <t>Paakariniemi, Eemeli VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000267623</t>
+  </si>
+  <si>
+    <t>Paakarivaara, Olavi XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000068958</t>
+  </si>
+  <si>
+    <t>Paakariwaara, Kristian II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000294557</t>
+  </si>
+  <si>
+    <t>Puoli-Suonio, Jere VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000296940</t>
+  </si>
+  <si>
+    <t>Puoli-Suonio, Sakari I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000393270</t>
+  </si>
+  <si>
+    <t>Puolijoki, Roope II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000173911</t>
+  </si>
+  <si>
+    <t>Puolilahti, Jenna IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000060710</t>
+  </si>
+  <si>
+    <t>Puolilahti, Viljami II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000361118</t>
+  </si>
+  <si>
+    <t>Puolimäki, Eemeli I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000113939</t>
+  </si>
+  <si>
+    <t>Puolimäki, Petteri IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000007032</t>
+  </si>
+  <si>
+    <t>Puoliniemi, Jere IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000406031</t>
+  </si>
+  <si>
+    <t>Puolivirta, Emma I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000054085</t>
+  </si>
+  <si>
+    <t>Puolivuori, Aurora I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000138820</t>
+  </si>
+  <si>
+    <t>Puolivuori, Olivia I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000340472</t>
+  </si>
+  <si>
+    <t>Puoliwaara, Sara XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000082484</t>
+  </si>
+  <si>
+    <t>Ranta-Suonio, Ilona VII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000074340</t>
+  </si>
+  <si>
+    <t>Rantamäki, Nea III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000094922</t>
+  </si>
+  <si>
+    <t>Rantanen, Ilona X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000040688</t>
+  </si>
+  <si>
+    <t>Rantasalo, Saana VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000089047</t>
+  </si>
+  <si>
+    <t>Rantavaara, Minttu VII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000384755</t>
+  </si>
+  <si>
+    <t>Rantavaara, Ville VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000388450</t>
+  </si>
+  <si>
+    <t>Rantavuori, Aino IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000121248</t>
+  </si>
+  <si>
+    <t>Salli-Suonio, Aino I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000060613</t>
+  </si>
+  <si>
+    <t>Sallijärvi, Daniel V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000342988</t>
+  </si>
+  <si>
+    <t>Sallijärvi, Iiris III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000412245</t>
+  </si>
+  <si>
+    <t>Sallimäki, Anniina I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000240844</t>
+  </si>
+  <si>
+    <t>Seilori-Suonio, Elmeri IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000015590</t>
+  </si>
+  <si>
+    <t>Seilorilahti, Aleksandra III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000100049</t>
+  </si>
+  <si>
+    <t>Seilorisalo, Peppi XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000326771</t>
+  </si>
+  <si>
+    <t>Seilorivaara, Alina XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000034380</t>
+  </si>
+  <si>
+    <t>Seilorivuori, Ella V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000226952</t>
+  </si>
+  <si>
+    <t>Seiloriwaara, Hilla X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000093279</t>
+  </si>
+  <si>
+    <t>Seppä-Suonio, Minttu II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000135959</t>
+  </si>
+  <si>
+    <t>Seppäjoki, Inkeri X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000376310</t>
+  </si>
+  <si>
+    <t>Seppäjoki, Rasmus VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000336101</t>
+  </si>
+  <si>
+    <t>Seppälahti, Ilmari III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000227210</t>
+  </si>
+  <si>
+    <t>Seppävirta, Matilda IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000069193</t>
+  </si>
+  <si>
+    <t>Seppäwaara, Minttu X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000065223</t>
+  </si>
+  <si>
+    <t>Suomi-Suonio, Viivi IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000051143</t>
+  </si>
+  <si>
+    <t>Suomi-Suonio, Vilhelmiina VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000296241</t>
+  </si>
+  <si>
+    <t>Suomilahti, Vilhelmiina I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000266404</t>
+  </si>
+  <si>
+    <t>Suominen, Juho IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000006088</t>
+  </si>
+  <si>
+    <t>Suomivaara, Tapio IX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000046284</t>
+  </si>
+  <si>
+    <t>Suomivaara, Toivo V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000287425</t>
+  </si>
+  <si>
+    <t>Suomivirta, Emma VII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000368784</t>
+  </si>
+  <si>
+    <t>Suomivirta, Saana III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000176989</t>
+  </si>
+  <si>
+    <t>Vihtajoki, Ilmari XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000320324</t>
+  </si>
+  <si>
+    <t>Vihtajärvi, Oskari II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000392925</t>
+  </si>
+  <si>
+    <t>Vihtanen, Tuomas III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000319500</t>
+  </si>
+  <si>
+    <t>Vihtavuori, Iina V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000397221</t>
+  </si>
+  <si>
+    <t>Vintturiniemi, Aada III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000125901</t>
+  </si>
+  <si>
+    <t>Vintturiniemi, Ilona I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000169051</t>
+  </si>
+  <si>
+    <t>Vintturiniemi, Lumi XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000154480</t>
+  </si>
+  <si>
+    <t>Vintturisalo, Elias III</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000191456</t>
+  </si>
+  <si>
+    <t>Vitsi-Suonio, Aaro VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000131364</t>
+  </si>
+  <si>
+    <t>Vitsi-Suonio, Josefiina X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000010540</t>
+  </si>
+  <si>
+    <t>Vitsilahti, Enni IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000208488</t>
+  </si>
+  <si>
+    <t>Vitsilahti, Milja VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000076827</t>
+  </si>
+  <si>
+    <t>Vitsisalo, Karoliina II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000272252</t>
+  </si>
+  <si>
+    <t>Vitsisalo, Veera II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000415226</t>
+  </si>
+  <si>
+    <t>Vitsivirta, Milla X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000268017</t>
+  </si>
+  <si>
+    <t>Vitsiwaara, Arttu VII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000145473</t>
+  </si>
+  <si>
+    <t>Ylppöjärvi, Olavi VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000052566</t>
+  </si>
+  <si>
+    <t>Ylppölahti, Niklas VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000155298</t>
+  </si>
+  <si>
+    <t>Ylppölahti, Peppi II</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000420172</t>
+  </si>
+  <si>
+    <t>Ylppövaara, Saara IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000063953</t>
+  </si>
+  <si>
+    <t>Ylppövaara, Samuel XX</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000156080</t>
+  </si>
+  <si>
+    <t>Ylppövirta, Helena VI</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000168696</t>
+  </si>
+  <si>
+    <t>Ylä-Suonio, Topias V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000207638</t>
+  </si>
+  <si>
+    <t>Yläjärvi, Ilona VIII</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000315601</t>
+  </si>
+  <si>
+    <t>Ylänen, Johanna I</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000259657</t>
+  </si>
+  <si>
+    <t>Ylävaara, Arttu V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000080130</t>
+  </si>
+  <si>
+    <t>Ylävaara, Onni X</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000010731</t>
+  </si>
+  <si>
+    <t>Ylävirta, Julius V</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000068110</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000200156</t>
+  </si>
+  <si>
+    <t>Ylävirta, Konsta IV</t>
+  </si>
+  <si>
+    <t>1.2.246.562.11.00000005610</t>
+  </si>
+  <si>
+    <t>Ylävuori, Neea V</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1341,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="D\-MMM"/>
   </numFmts>
   <fonts count="5">
@@ -1484,16 +1481,16 @@
   </sheetPr>
   <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.437037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,13 +1536,15 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1555,18 +1554,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -1574,100 +1567,98 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1677,195 +1668,195 @@
         <v>5</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="H12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1875,133 +1866,137 @@
         <v>5</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="7" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2014,70 +2009,66 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2087,313 +2078,315 @@
         <v>3</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7" t="n">
+        <v>7</v>
+      </c>
       <c r="H37" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="7" t="n">
-        <v>7</v>
-      </c>
+      <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="H47" s="7" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2401,97 +2394,97 @@
       <c r="F48" s="5"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="E52" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2499,17 +2492,17 @@
       <c r="F53" s="5"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2517,17 +2510,17 @@
       <c r="F54" s="5"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2535,17 +2528,17 @@
       <c r="F55" s="5"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2553,33 +2546,35 @@
       <c r="F56" s="5"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2587,17 +2582,17 @@
       <c r="F58" s="5"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2605,17 +2600,17 @@
       <c r="F59" s="5"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2623,17 +2618,17 @@
       <c r="F60" s="5"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2641,17 +2636,17 @@
       <c r="F61" s="5"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2659,17 +2654,17 @@
       <c r="F62" s="5"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2677,17 +2672,17 @@
       <c r="F63" s="5"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2695,39 +2690,39 @@
       <c r="F64" s="5"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2735,17 +2730,17 @@
       <c r="F66" s="5"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2753,17 +2748,17 @@
       <c r="F67" s="5"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2771,17 +2766,17 @@
       <c r="F68" s="5"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2789,17 +2784,17 @@
       <c r="F69" s="5"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2807,17 +2802,17 @@
       <c r="F70" s="5"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2830,10 +2825,10 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2841,17 +2836,17 @@
       <c r="F72" s="5"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2859,17 +2854,17 @@
       <c r="F73" s="5"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2877,17 +2872,17 @@
       <c r="F74" s="5"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2895,17 +2890,17 @@
       <c r="F75" s="5"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2913,17 +2908,17 @@
       <c r="F76" s="5"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2931,17 +2926,17 @@
       <c r="F77" s="5"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2949,17 +2944,17 @@
       <c r="F78" s="5"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2967,17 +2962,17 @@
       <c r="F79" s="5"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2990,10 +2985,10 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3001,17 +2996,17 @@
       <c r="F81" s="5"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3019,17 +3014,17 @@
       <c r="F82" s="5"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3037,17 +3032,17 @@
       <c r="F83" s="5"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3055,39 +3050,39 @@
       <c r="F84" s="5"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3095,17 +3090,17 @@
       <c r="F86" s="5"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3113,17 +3108,17 @@
       <c r="F87" s="5"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3136,10 +3131,10 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3152,10 +3147,10 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3163,17 +3158,17 @@
       <c r="F90" s="5"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3181,17 +3176,17 @@
       <c r="F91" s="5"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3199,17 +3194,17 @@
       <c r="F92" s="5"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3217,17 +3212,17 @@
       <c r="F93" s="5"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3235,17 +3230,17 @@
       <c r="F94" s="5"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3253,17 +3248,17 @@
       <c r="F95" s="5"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3271,17 +3266,17 @@
       <c r="F96" s="5"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3289,17 +3284,17 @@
       <c r="F97" s="5"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3307,17 +3302,17 @@
       <c r="F98" s="5"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3325,17 +3320,17 @@
       <c r="F99" s="5"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3343,17 +3338,17 @@
       <c r="F100" s="5"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3361,17 +3356,17 @@
       <c r="F101" s="5"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3379,17 +3374,17 @@
       <c r="F102" s="5"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3397,17 +3392,17 @@
       <c r="F103" s="5"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3415,17 +3410,17 @@
       <c r="F104" s="5"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3433,17 +3428,17 @@
       <c r="F105" s="5"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3456,10 +3451,10 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3467,17 +3462,17 @@
       <c r="F107" s="5"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3485,17 +3480,17 @@
       <c r="F108" s="5"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3503,17 +3498,17 @@
       <c r="F109" s="5"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3521,17 +3516,17 @@
       <c r="F110" s="5"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3539,17 +3534,17 @@
       <c r="F111" s="5"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3557,17 +3552,17 @@
       <c r="F112" s="5"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3575,17 +3570,17 @@
       <c r="F113" s="5"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3593,17 +3588,17 @@
       <c r="F114" s="5"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3611,17 +3606,17 @@
       <c r="F115" s="5"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3629,17 +3624,17 @@
       <c r="F116" s="5"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3647,17 +3642,17 @@
       <c r="F117" s="5"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3665,17 +3660,17 @@
       <c r="F118" s="5"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3683,39 +3678,39 @@
       <c r="F119" s="5"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G120" s="7"/>
       <c r="H120" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3725,17 +3720,17 @@
         <v>6.6</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3743,17 +3738,17 @@
       <c r="F122" s="5"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3761,17 +3756,17 @@
       <c r="F123" s="5"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3779,39 +3774,39 @@
       <c r="F124" s="5"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G125" s="7"/>
       <c r="H125" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3819,17 +3814,17 @@
       <c r="F126" s="5"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3837,17 +3832,17 @@
       <c r="F127" s="5"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3855,17 +3850,17 @@
       <c r="F128" s="5"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3873,17 +3868,17 @@
       <c r="F129" s="5"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3891,17 +3886,17 @@
       <c r="F130" s="5"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3909,17 +3904,17 @@
       <c r="F131" s="5"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3927,17 +3922,17 @@
       <c r="F132" s="5"/>
       <c r="G132" s="7"/>
       <c r="H132" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3945,17 +3940,17 @@
       <c r="F133" s="5"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3963,17 +3958,17 @@
       <c r="F134" s="5"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3981,17 +3976,17 @@
       <c r="F135" s="5"/>
       <c r="G135" s="7"/>
       <c r="H135" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3999,17 +3994,17 @@
       <c r="F136" s="5"/>
       <c r="G136" s="7"/>
       <c r="H136" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4017,17 +4012,17 @@
       <c r="F137" s="5"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4035,17 +4030,17 @@
       <c r="F138" s="5"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4053,17 +4048,17 @@
       <c r="F139" s="5"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4071,17 +4066,17 @@
       <c r="F140" s="5"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4089,17 +4084,17 @@
       <c r="F141" s="5"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4107,17 +4102,17 @@
       <c r="F142" s="5"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4125,17 +4120,17 @@
       <c r="F143" s="5"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4143,17 +4138,17 @@
       <c r="F144" s="5"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4161,17 +4156,17 @@
       <c r="F145" s="5"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4179,17 +4174,17 @@
       <c r="F146" s="5"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4197,17 +4192,17 @@
       <c r="F147" s="5"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4215,39 +4210,39 @@
       <c r="F148" s="5"/>
       <c r="G148" s="7"/>
       <c r="H148" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G149" s="7"/>
       <c r="H149" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -4255,17 +4250,17 @@
       <c r="F150" s="5"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -4273,17 +4268,17 @@
       <c r="F151" s="5"/>
       <c r="G151" s="7"/>
       <c r="H151" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -4291,17 +4286,17 @@
       <c r="F152" s="5"/>
       <c r="G152" s="7"/>
       <c r="H152" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -4314,10 +4309,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -4325,17 +4320,17 @@
       <c r="F154" s="5"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -4343,17 +4338,17 @@
       <c r="F155" s="5"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -4366,10 +4361,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -4377,17 +4372,17 @@
       <c r="F157" s="5"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -4395,17 +4390,17 @@
       <c r="F158" s="5"/>
       <c r="G158" s="7"/>
       <c r="H158" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -4413,17 +4408,17 @@
       <c r="F159" s="5"/>
       <c r="G159" s="7"/>
       <c r="H159" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -4431,17 +4426,17 @@
       <c r="F160" s="5"/>
       <c r="G160" s="7"/>
       <c r="H160" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -4449,17 +4444,17 @@
       <c r="F161" s="5"/>
       <c r="G161" s="7"/>
       <c r="H161" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -4467,17 +4462,17 @@
       <c r="F162" s="5"/>
       <c r="G162" s="7"/>
       <c r="H162" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -4485,17 +4480,17 @@
       <c r="F163" s="5"/>
       <c r="G163" s="7"/>
       <c r="H163" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4503,17 +4498,17 @@
       <c r="F164" s="5"/>
       <c r="G164" s="7"/>
       <c r="H164" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -4521,17 +4516,17 @@
       <c r="F165" s="5"/>
       <c r="G165" s="7"/>
       <c r="H165" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4539,17 +4534,17 @@
       <c r="F166" s="5"/>
       <c r="G166" s="7"/>
       <c r="H166" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4557,39 +4552,39 @@
       <c r="F167" s="5"/>
       <c r="G167" s="7"/>
       <c r="H167" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G168" s="7"/>
       <c r="H168" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4597,17 +4592,17 @@
       <c r="F169" s="5"/>
       <c r="G169" s="7"/>
       <c r="H169" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4615,17 +4610,17 @@
       <c r="F170" s="5"/>
       <c r="G170" s="7"/>
       <c r="H170" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4633,17 +4628,17 @@
       <c r="F171" s="5"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4651,17 +4646,17 @@
       <c r="F172" s="5"/>
       <c r="G172" s="7"/>
       <c r="H172" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4669,17 +4664,17 @@
       <c r="F173" s="5"/>
       <c r="G173" s="7"/>
       <c r="H173" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4687,17 +4682,17 @@
       <c r="F174" s="5"/>
       <c r="G174" s="7"/>
       <c r="H174" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4705,17 +4700,17 @@
       <c r="F175" s="5"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4723,17 +4718,17 @@
       <c r="F176" s="5"/>
       <c r="G176" s="7"/>
       <c r="H176" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4746,10 +4741,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4757,39 +4752,39 @@
       <c r="F178" s="5"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G179" s="7"/>
       <c r="H179" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4797,17 +4792,17 @@
       <c r="F180" s="5"/>
       <c r="G180" s="7"/>
       <c r="H180" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4815,17 +4810,17 @@
       <c r="F181" s="5"/>
       <c r="G181" s="7"/>
       <c r="H181" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4833,17 +4828,17 @@
       <c r="F182" s="5"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4851,17 +4846,17 @@
       <c r="F183" s="5"/>
       <c r="G183" s="7"/>
       <c r="H183" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4869,17 +4864,17 @@
       <c r="F184" s="5"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4887,17 +4882,17 @@
       <c r="F185" s="5"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4905,17 +4900,17 @@
       <c r="F186" s="5"/>
       <c r="G186" s="7"/>
       <c r="H186" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4928,10 +4923,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4939,39 +4934,39 @@
       <c r="F188" s="5"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G189" s="7"/>
       <c r="H189" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4979,17 +4974,17 @@
       <c r="F190" s="5"/>
       <c r="G190" s="7"/>
       <c r="H190" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4997,17 +4992,17 @@
       <c r="F191" s="5"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -5015,17 +5010,17 @@
       <c r="F192" s="5"/>
       <c r="G192" s="7"/>
       <c r="H192" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -5033,17 +5028,17 @@
       <c r="F193" s="5"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -5051,17 +5046,17 @@
       <c r="F194" s="5"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -5069,17 +5064,17 @@
       <c r="F195" s="5"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -5087,17 +5082,17 @@
       <c r="F196" s="5"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -5105,17 +5100,17 @@
       <c r="F197" s="5"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -5123,17 +5118,17 @@
       <c r="F198" s="5"/>
       <c r="G198" s="7"/>
       <c r="H198" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -5141,17 +5136,17 @@
       <c r="F199" s="5"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -5159,17 +5154,17 @@
       <c r="F200" s="5"/>
       <c r="G200" s="7"/>
       <c r="H200" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -5177,17 +5172,17 @@
       <c r="F201" s="5"/>
       <c r="G201" s="7"/>
       <c r="H201" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -5195,17 +5190,17 @@
       <c r="F202" s="5"/>
       <c r="G202" s="7"/>
       <c r="H202" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -5213,17 +5208,17 @@
       <c r="F203" s="5"/>
       <c r="G203" s="7"/>
       <c r="H203" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -5231,17 +5226,17 @@
       <c r="F204" s="5"/>
       <c r="G204" s="7"/>
       <c r="H204" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -5249,17 +5244,17 @@
       <c r="F205" s="5"/>
       <c r="G205" s="7"/>
       <c r="H205" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -5267,17 +5262,17 @@
       <c r="F206" s="5"/>
       <c r="G206" s="7"/>
       <c r="H206" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -5290,10 +5285,10 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -5301,17 +5296,17 @@
       <c r="F208" s="5"/>
       <c r="G208" s="7"/>
       <c r="H208" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -5319,17 +5314,17 @@
       <c r="F209" s="5"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -5337,17 +5332,17 @@
       <c r="F210" s="5"/>
       <c r="G210" s="7"/>
       <c r="H210" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -5360,10 +5355,10 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -5371,17 +5366,17 @@
       <c r="F212" s="5"/>
       <c r="G212" s="7"/>
       <c r="H212" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -5394,10 +5389,10 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -5405,17 +5400,17 @@
       <c r="F214" s="5"/>
       <c r="G214" s="7"/>
       <c r="H214" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -5423,17 +5418,17 @@
       <c r="F215" s="5"/>
       <c r="G215" s="7"/>
       <c r="H215" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -5441,17 +5436,17 @@
       <c r="F216" s="5"/>
       <c r="G216" s="7"/>
       <c r="H216" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -5459,17 +5454,17 @@
       <c r="F217" s="5"/>
       <c r="G217" s="7"/>
       <c r="H217" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -5477,22 +5472,22 @@
       <c r="F218" s="5"/>
       <c r="G218" s="7"/>
       <c r="H218" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B4:G4"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
